--- a/Brighway/Results/Ananas - APOS_recipe_unq.xlsx
+++ b/Brighway/Results/Ananas - APOS_recipe_unq.xlsx
@@ -434,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1027,847 +1027,912 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10">
-        <v>0.002954329391516229</v>
+        <v>-0.001398397578099151</v>
       </c>
       <c r="B10">
-        <v>1.515490602485785</v>
+        <v>-1.664456847699325</v>
       </c>
       <c r="C10">
-        <v>0.05026757153070352</v>
+        <v>-0.01833915533971636</v>
       </c>
       <c r="D10">
-        <v>0.06596205456579371</v>
+        <v>-0.02434508699360618</v>
       </c>
       <c r="E10">
-        <v>4.04874886652157</v>
+        <v>-0.1475127942075781</v>
       </c>
       <c r="F10">
-        <v>0.2642030407715837</v>
+        <v>-0.02691727953374713</v>
       </c>
       <c r="G10">
-        <v>0.0005412410983135903</v>
+        <v>-9.761806801988184E-06</v>
       </c>
       <c r="H10">
-        <v>0.0005718955761227831</v>
+        <v>-0.0002333030147347097</v>
       </c>
       <c r="I10">
-        <v>0.05631636486512228</v>
+        <v>-0.006488520465459786</v>
       </c>
       <c r="J10">
-        <v>1.143237988642474</v>
+        <v>-0.4347469518951495</v>
       </c>
       <c r="K10">
-        <v>0.09171310215517449</v>
+        <v>-0.001827152488167698</v>
       </c>
       <c r="L10">
-        <v>0.4061157048377768</v>
+        <v>-0.00079841656523842</v>
       </c>
       <c r="M10">
-        <v>0.01086213095073881</v>
+        <v>-0.002098156437304584</v>
       </c>
       <c r="N10">
-        <v>8.925567884795933E-07</v>
+        <v>-1.167375885956466E-05</v>
       </c>
       <c r="O10">
-        <v>0.001149453399117339</v>
+        <v>-0.00043883039973995</v>
       </c>
       <c r="P10">
-        <v>0.002928290048509126</v>
+        <v>-0.003158334709378711</v>
       </c>
       <c r="Q10">
-        <v>0.003045220115092116</v>
+        <v>-0.003169012312420285</v>
       </c>
       <c r="R10">
-        <v>0.01506821449630805</v>
+        <v>-0.002121980057042055</v>
       </c>
       <c r="S10">
-        <v>9.316431896632944E-09</v>
+        <v>-5.396405680777191E-09</v>
       </c>
       <c r="T10">
-        <v>2.614018444915714E-06</v>
+        <v>-1.955570222927954E-06</v>
       </c>
       <c r="U10">
-        <v>0.0888179670176982</v>
+        <v>-0.009696643846595051</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11">
-        <v>0.006306594650693631</v>
+        <v>0.002954329391516229</v>
       </c>
       <c r="B11">
-        <v>2.405733261763123</v>
+        <v>1.515490602485785</v>
       </c>
       <c r="C11">
-        <v>0.05477910462156944</v>
+        <v>0.05026757153070352</v>
       </c>
       <c r="D11">
-        <v>0.07305763790122694</v>
+        <v>0.06596205456579371</v>
       </c>
       <c r="E11">
-        <v>5.04000187073401</v>
+        <v>4.04874886652157</v>
       </c>
       <c r="F11">
-        <v>1.712789148605322</v>
+        <v>0.2642030407715837</v>
       </c>
       <c r="G11">
-        <v>0.000391842096559222</v>
+        <v>0.0005412410983135903</v>
       </c>
       <c r="H11">
-        <v>3.966914772924917E-05</v>
+        <v>0.0005718955761227831</v>
       </c>
       <c r="I11">
-        <v>0.08680588440480634</v>
+        <v>0.05631636486512228</v>
       </c>
       <c r="J11">
-        <v>1.158757258276208</v>
+        <v>1.143237988642474</v>
       </c>
       <c r="K11">
-        <v>0.04720857466599523</v>
+        <v>0.09171310215517449</v>
       </c>
       <c r="L11">
-        <v>0.0186027476319627</v>
+        <v>0.4061157048377768</v>
       </c>
       <c r="M11">
-        <v>0.01829508341012275</v>
+        <v>0.01086213095073881</v>
       </c>
       <c r="N11">
-        <v>2.736037382035725E-07</v>
+        <v>8.925567884795933E-07</v>
       </c>
       <c r="O11">
-        <v>0.002394198057262337</v>
+        <v>0.001149453399117339</v>
       </c>
       <c r="P11">
-        <v>0.00493610865037758</v>
+        <v>0.002928290048509126</v>
       </c>
       <c r="Q11">
-        <v>0.005285701597541196</v>
+        <v>0.003045220115092116</v>
       </c>
       <c r="R11">
-        <v>0.01750248275105061</v>
+        <v>0.01506821449630805</v>
       </c>
       <c r="S11">
-        <v>9.288392702489792E-09</v>
+        <v>9.316431896632944E-09</v>
       </c>
       <c r="T11">
-        <v>4.332772995435653E-06</v>
+        <v>2.614018444915714E-06</v>
       </c>
       <c r="U11">
-        <v>0.6779802991949381</v>
+        <v>0.0888179670176982</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12">
-        <v>0.02514339526486215</v>
+        <v>0.006306594650693631</v>
       </c>
       <c r="B12">
-        <v>8.399961298914381</v>
+        <v>2.405733261763123</v>
       </c>
       <c r="C12">
-        <v>0.2866124413259359</v>
+        <v>0.05477910462156944</v>
       </c>
       <c r="D12">
-        <v>0.3723967941266588</v>
+        <v>0.07305763790122694</v>
       </c>
       <c r="E12">
-        <v>25.6827404754587</v>
+        <v>5.04000187073401</v>
       </c>
       <c r="F12">
-        <v>4.031258736860775</v>
+        <v>1.712789148605322</v>
       </c>
       <c r="G12">
-        <v>0.002288972568284637</v>
+        <v>0.000391842096559222</v>
       </c>
       <c r="H12">
-        <v>0.0003802853124773709</v>
+        <v>3.966914772924917E-05</v>
       </c>
       <c r="I12">
-        <v>0.3771829059794592</v>
+        <v>0.08680588440480634</v>
       </c>
       <c r="J12">
-        <v>7.31689571798266</v>
+        <v>1.158757258276208</v>
       </c>
       <c r="K12">
-        <v>0.3946876994477837</v>
+        <v>0.04720857466599523</v>
       </c>
       <c r="L12">
-        <v>0.1061868305915974</v>
+        <v>0.0186027476319627</v>
       </c>
       <c r="M12">
-        <v>0.1953829610508839</v>
+        <v>0.01829508341012275</v>
       </c>
       <c r="N12">
-        <v>2.270205895481432E-06</v>
+        <v>2.736037382035725E-07</v>
       </c>
       <c r="O12">
-        <v>0.01225116965643993</v>
+        <v>0.002394198057262337</v>
       </c>
       <c r="P12">
-        <v>0.01846342199497768</v>
+        <v>0.00493610865037758</v>
       </c>
       <c r="Q12">
-        <v>0.0199437859836298</v>
+        <v>0.005285701597541196</v>
       </c>
       <c r="R12">
-        <v>0.1342957583382217</v>
+        <v>0.01750248275105061</v>
       </c>
       <c r="S12">
-        <v>3.443804349865627E-08</v>
+        <v>9.288392702489792E-09</v>
       </c>
       <c r="T12">
-        <v>1.873251592571872E-05</v>
+        <v>4.332772995435653E-06</v>
       </c>
       <c r="U12">
-        <v>1.440299990693779</v>
+        <v>0.6779802991949381</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13">
-        <v>0.0003643781118400019</v>
+        <v>0.02514339526486215</v>
       </c>
       <c r="B13">
-        <v>0.2221721220878747</v>
+        <v>8.399961298914381</v>
       </c>
       <c r="C13">
-        <v>0.009296349481364284</v>
+        <v>0.2866124413259359</v>
       </c>
       <c r="D13">
-        <v>0.01191902662618417</v>
+        <v>0.3723967941266588</v>
       </c>
       <c r="E13">
-        <v>0.3026441382918265</v>
+        <v>25.6827404754587</v>
       </c>
       <c r="F13">
-        <v>0.05480765968899677</v>
+        <v>4.031258736860775</v>
       </c>
       <c r="G13">
-        <v>9.047393720261818E-05</v>
+        <v>0.002288972568284637</v>
       </c>
       <c r="H13">
-        <v>7.627894201550689E-06</v>
+        <v>0.0003802853124773709</v>
       </c>
       <c r="I13">
-        <v>0.01444844534370092</v>
+        <v>0.3771829059794592</v>
       </c>
       <c r="J13">
-        <v>0.1858149607232804</v>
+        <v>7.31689571798266</v>
       </c>
       <c r="K13">
-        <v>0.05022010110315003</v>
+        <v>0.3946876994477837</v>
       </c>
       <c r="L13">
-        <v>0.004167897683455492</v>
+        <v>0.1061868305915974</v>
       </c>
       <c r="M13">
-        <v>0.00123987458850229</v>
+        <v>0.1953829610508839</v>
       </c>
       <c r="N13">
-        <v>9.941431743748172E-08</v>
+        <v>2.270205895481432E-06</v>
       </c>
       <c r="O13">
-        <v>0.0001348675169104861</v>
+        <v>0.01225116965643993</v>
       </c>
       <c r="P13">
-        <v>0.0003024140728077344</v>
+        <v>0.01846342199497768</v>
       </c>
       <c r="Q13">
-        <v>0.0003108612536944435</v>
+        <v>0.0199437859836298</v>
       </c>
       <c r="R13">
-        <v>0.00119646265234164</v>
+        <v>0.1342957583382217</v>
       </c>
       <c r="S13">
-        <v>8.482716221736254E-10</v>
+        <v>3.443804349865627E-08</v>
       </c>
       <c r="T13">
-        <v>3.846420580241221E-07</v>
+        <v>1.873251592571872E-05</v>
       </c>
       <c r="U13">
-        <v>0.009493079813729318</v>
+        <v>1.440299990693779</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14">
-        <v>0.0001116860948433568</v>
+        <v>0.0003643781118400019</v>
       </c>
       <c r="B14">
-        <v>0.1284863453376611</v>
+        <v>0.2221721220878747</v>
       </c>
       <c r="C14">
-        <v>0.001836060845992218</v>
+        <v>0.009296349481364284</v>
       </c>
       <c r="D14">
-        <v>0.002400947807867175</v>
+        <v>0.01191902662618417</v>
       </c>
       <c r="E14">
-        <v>0.1765880756551705</v>
+        <v>0.3026441382918265</v>
       </c>
       <c r="F14">
-        <v>0.009995815845436809</v>
+        <v>0.05480765968899677</v>
       </c>
       <c r="G14">
-        <v>1.081273914024316E-05</v>
+        <v>9.047393720261818E-05</v>
       </c>
       <c r="H14">
-        <v>1.173016349247877E-06</v>
+        <v>7.627894201550689E-06</v>
       </c>
       <c r="I14">
-        <v>0.00159169622683153</v>
+        <v>0.01444844534370092</v>
       </c>
       <c r="J14">
-        <v>0.04413418489321957</v>
+        <v>0.1858149607232804</v>
       </c>
       <c r="K14">
-        <v>0.002933684866049508</v>
+        <v>0.05022010110315003</v>
       </c>
       <c r="L14">
-        <v>0.02273867635388798</v>
+        <v>0.004167897683455492</v>
       </c>
       <c r="M14">
-        <v>0.0002052876789541663</v>
+        <v>0.00123987458850229</v>
       </c>
       <c r="N14">
-        <v>3.35510872385811E-08</v>
+        <v>9.941431743748172E-08</v>
       </c>
       <c r="O14">
-        <v>4.868159393211219E-05</v>
+        <v>0.0001348675169104861</v>
       </c>
       <c r="P14">
-        <v>0.0001277725538797984</v>
+        <v>0.0003024140728077344</v>
       </c>
       <c r="Q14">
-        <v>0.0001323719612094637</v>
+        <v>0.0003108612536944435</v>
       </c>
       <c r="R14">
-        <v>0.0002357345517333425</v>
+        <v>0.00119646265234164</v>
       </c>
       <c r="S14">
-        <v>6.129524749472023E-10</v>
+        <v>8.482716221736254E-10</v>
       </c>
       <c r="T14">
-        <v>1.6586298536921E-07</v>
+        <v>3.846420580241221E-07</v>
       </c>
       <c r="U14">
-        <v>0.003053063249192321</v>
+        <v>0.009493079813729318</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15">
-        <v>0.008308023781373956</v>
+        <v>0.0001116860948433568</v>
       </c>
       <c r="B15">
-        <v>3.093200718639223</v>
+        <v>0.1284863453376611</v>
       </c>
       <c r="C15">
-        <v>0.08132469314862549</v>
+        <v>0.001836060845992218</v>
       </c>
       <c r="D15">
-        <v>0.1081262640346603</v>
+        <v>0.002400947807867175</v>
       </c>
       <c r="E15">
-        <v>6.126185248702732</v>
+        <v>0.1765880756551705</v>
       </c>
       <c r="F15">
-        <v>1.8441894732138</v>
+        <v>0.009995815845436809</v>
       </c>
       <c r="G15">
-        <v>0.0007933753277114688</v>
+        <v>1.081273914024316E-05</v>
       </c>
       <c r="H15">
-        <v>0.0001081595696689586</v>
+        <v>1.173016349247877E-06</v>
       </c>
       <c r="I15">
-        <v>0.1244989788820996</v>
+        <v>0.00159169622683153</v>
       </c>
       <c r="J15">
-        <v>1.881570128181702</v>
+        <v>0.04413418489321957</v>
       </c>
       <c r="K15">
-        <v>0.2459796151118322</v>
+        <v>0.002933684866049508</v>
       </c>
       <c r="L15">
-        <v>0.08189162582893442</v>
+        <v>0.02273867635388798</v>
       </c>
       <c r="M15">
-        <v>0.01995811999627388</v>
+        <v>0.0002052876789541663</v>
       </c>
       <c r="N15">
-        <v>5.533021200932209E-07</v>
+        <v>3.35510872385811E-08</v>
       </c>
       <c r="O15">
-        <v>0.003524270664925526</v>
+        <v>4.868159393211219E-05</v>
       </c>
       <c r="P15">
-        <v>0.006931815938375015</v>
+        <v>0.0001277725538797984</v>
       </c>
       <c r="Q15">
-        <v>0.007618641571257396</v>
+        <v>0.0001323719612094637</v>
       </c>
       <c r="R15">
-        <v>0.04827421824290701</v>
+        <v>0.0002357345517333425</v>
       </c>
       <c r="S15">
-        <v>1.280348098667665E-08</v>
+        <v>6.129524749472023E-10</v>
       </c>
       <c r="T15">
-        <v>6.042889030818631E-06</v>
+        <v>1.6586298536921E-07</v>
       </c>
       <c r="U15">
-        <v>0.6974983182310545</v>
+        <v>0.003053063249192321</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16">
-        <v>-0.0002716546420837818</v>
+        <v>0.008308023781373956</v>
       </c>
       <c r="B16">
-        <v>-2.373839736559359</v>
+        <v>3.093200718639223</v>
       </c>
       <c r="C16">
-        <v>-0.1201199389479893</v>
+        <v>0.08132469314862549</v>
       </c>
       <c r="D16">
-        <v>-0.1599610761090779</v>
+        <v>0.1081262640346603</v>
       </c>
       <c r="E16">
-        <v>-1.265781194169008</v>
+        <v>6.126185248702732</v>
       </c>
       <c r="F16">
-        <v>-0.007903464419954941</v>
+        <v>1.8441894732138</v>
       </c>
       <c r="G16">
-        <v>-5.236324556791583E-06</v>
+        <v>0.0007933753277114688</v>
       </c>
       <c r="H16">
-        <v>-2.145683914477357E-05</v>
+        <v>0.0001081595696689586</v>
       </c>
       <c r="I16">
-        <v>-0.02399119022272976</v>
+        <v>0.1244989788820996</v>
       </c>
       <c r="J16">
-        <v>-2.349946984803219</v>
+        <v>1.881570128181702</v>
       </c>
       <c r="K16">
-        <v>-0.001044696331679713</v>
+        <v>0.2459796151118322</v>
       </c>
       <c r="L16">
-        <v>-0.0005566572793466944</v>
+        <v>0.08189162582893442</v>
       </c>
       <c r="M16">
-        <v>-0.001265723189307506</v>
+        <v>0.01995811999627388</v>
       </c>
       <c r="N16">
-        <v>-1.017244141792448E-06</v>
+        <v>5.533021200932209E-07</v>
       </c>
       <c r="O16">
-        <v>-9.178312963670392E-05</v>
+        <v>0.003524270664925526</v>
       </c>
       <c r="P16">
-        <v>-0.0006027119753270859</v>
+        <v>0.006931815938375015</v>
       </c>
       <c r="Q16">
-        <v>-0.0006068256952674337</v>
+        <v>0.007618641571257396</v>
       </c>
       <c r="R16">
-        <v>-0.003723410345889685</v>
+        <v>0.04827421824290701</v>
       </c>
       <c r="S16">
-        <v>-6.905675081024608E-09</v>
+        <v>1.280348098667665E-08</v>
       </c>
       <c r="T16">
-        <v>-2.885749900426476E-06</v>
+        <v>6.042889030818631E-06</v>
       </c>
       <c r="U16">
-        <v>-0.00298372465004401</v>
+        <v>0.6974983182310545</v>
       </c>
     </row>
     <row r="17" spans="1:21">
       <c r="A17">
-        <v>0.001472941843068299</v>
+        <v>-0.0002716546420837818</v>
       </c>
       <c r="B17">
-        <v>0.5774649877287763</v>
+        <v>-2.373839736559359</v>
       </c>
       <c r="C17">
-        <v>0.06155749361075959</v>
+        <v>-0.1201199389479893</v>
       </c>
       <c r="D17">
-        <v>0.08070113030483993</v>
+        <v>-0.1599610761090779</v>
       </c>
       <c r="E17">
-        <v>4.132010231415849</v>
+        <v>-1.265781194169008</v>
       </c>
       <c r="F17">
-        <v>0.1258350317718908</v>
+        <v>-0.007903464419954941</v>
       </c>
       <c r="G17">
-        <v>0.000977663607814971</v>
+        <v>-5.236324556791583E-06</v>
       </c>
       <c r="H17">
-        <v>8.922302522153182E-05</v>
+        <v>-2.145683914477357E-05</v>
       </c>
       <c r="I17">
-        <v>0.07847872620750111</v>
+        <v>-0.02399119022272976</v>
       </c>
       <c r="J17">
-        <v>1.160180109081381</v>
+        <v>-2.349946984803219</v>
       </c>
       <c r="K17">
-        <v>0.1157339465808215</v>
+        <v>-0.001044696331679713</v>
       </c>
       <c r="L17">
-        <v>0.03126211681103819</v>
+        <v>-0.0005566572793466944</v>
       </c>
       <c r="M17">
-        <v>0.01528680198581913</v>
+        <v>-0.001265723189307506</v>
       </c>
       <c r="N17">
-        <v>2.443635997222753E-07</v>
+        <v>-1.017244141792448E-06</v>
       </c>
       <c r="O17">
-        <v>0.0007059247677326669</v>
+        <v>-9.178312963670392E-05</v>
       </c>
       <c r="P17">
-        <v>0.001177074586232225</v>
+        <v>-0.0006027119753270859</v>
       </c>
       <c r="Q17">
-        <v>0.001227075437255501</v>
+        <v>-0.0006068256952674337</v>
       </c>
       <c r="R17">
-        <v>0.004837597777463606</v>
+        <v>-0.003723410345889685</v>
       </c>
       <c r="S17">
-        <v>3.119058388751423E-09</v>
+        <v>-6.905675081024608E-09</v>
       </c>
       <c r="T17">
-        <v>1.517627214241258E-06</v>
+        <v>-2.885749900426476E-06</v>
       </c>
       <c r="U17">
-        <v>0.03991209902565937</v>
+        <v>-0.00298372465004401</v>
       </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18">
-        <v>0.002840721741041421</v>
+        <v>0.001472941843068299</v>
       </c>
       <c r="B18">
-        <v>0.7865498101258326</v>
+        <v>0.5774649877287763</v>
       </c>
       <c r="C18">
-        <v>0.04502625715362947</v>
+        <v>0.06155749361075959</v>
       </c>
       <c r="D18">
-        <v>0.05861454462476434</v>
+        <v>0.08070113030483993</v>
       </c>
       <c r="E18">
-        <v>3.677716401673161</v>
+        <v>4.132010231415849</v>
       </c>
       <c r="F18">
-        <v>0.1970142954299811</v>
+        <v>0.1258350317718908</v>
       </c>
       <c r="G18">
-        <v>0.0002860356517643253</v>
+        <v>0.000977663607814971</v>
       </c>
       <c r="H18">
-        <v>3.820379849416218E-05</v>
+        <v>8.922302522153182E-05</v>
       </c>
       <c r="I18">
-        <v>0.03842833683389504</v>
+        <v>0.07847872620750111</v>
       </c>
       <c r="J18">
-        <v>0.7911679012801113</v>
+        <v>1.160180109081381</v>
       </c>
       <c r="K18">
-        <v>0.08027073757458923</v>
+        <v>0.1157339465808215</v>
       </c>
       <c r="L18">
-        <v>0.01617315367762685</v>
+        <v>0.03126211681103819</v>
       </c>
       <c r="M18">
-        <v>0.008298706319724994</v>
+        <v>0.01528680198581913</v>
       </c>
       <c r="N18">
-        <v>3.009179196280748E-07</v>
+        <v>2.443635997222753E-07</v>
       </c>
       <c r="O18">
-        <v>0.001561111738973549</v>
+        <v>0.0007059247677326669</v>
       </c>
       <c r="P18">
-        <v>0.002422870110832379</v>
+        <v>0.001177074586232225</v>
       </c>
       <c r="Q18">
-        <v>0.002485676998380966</v>
+        <v>0.001227075437255501</v>
       </c>
       <c r="R18">
-        <v>0.005126486680750639</v>
+        <v>0.004837597777463606</v>
       </c>
       <c r="S18">
-        <v>3.540145139419744E-09</v>
+        <v>3.119058388751423E-09</v>
       </c>
       <c r="T18">
-        <v>2.033461140154632E-06</v>
+        <v>1.517627214241258E-06</v>
       </c>
       <c r="U18">
-        <v>0.05049445730272705</v>
+        <v>0.03991209902565937</v>
       </c>
     </row>
     <row r="19" spans="1:21">
       <c r="A19">
-        <v>0.0003053525269298775</v>
+        <v>9.169020957333832E-05</v>
       </c>
       <c r="B19">
-        <v>0.1899538957870924</v>
+        <v>0.01110582661084205</v>
       </c>
       <c r="C19">
-        <v>0.00466367956445735</v>
+        <v>0.0005250900212907181</v>
       </c>
       <c r="D19">
-        <v>0.008280256864338066</v>
+        <v>0.0004536304933790997</v>
       </c>
       <c r="E19">
-        <v>3.590255313400422</v>
+        <v>0.02311448572983808</v>
       </c>
       <c r="F19">
-        <v>0.05929106171555808</v>
+        <v>0.001427595743137386</v>
       </c>
       <c r="G19">
-        <v>1.336079659134336E-05</v>
+        <v>4.858506454366275E-06</v>
       </c>
       <c r="H19">
-        <v>5.282552523333986E-06</v>
+        <v>4.740107984935163E-05</v>
       </c>
       <c r="I19">
-        <v>0.009731776675048227</v>
+        <v>0.0003273023621656155</v>
       </c>
       <c r="J19">
-        <v>0.1466184951732519</v>
+        <v>0.009405026619219457</v>
       </c>
       <c r="K19">
-        <v>0.00303142950846957</v>
+        <v>0.0003016755496993891</v>
       </c>
       <c r="L19">
-        <v>0.007092274067712158</v>
+        <v>0.009830091315993791</v>
       </c>
       <c r="M19">
-        <v>0.002112406811640503</v>
+        <v>5.667838303461788E-05</v>
       </c>
       <c r="N19">
-        <v>8.610568481109093E-08</v>
+        <v>6.881795467078997E-08</v>
       </c>
       <c r="O19">
-        <v>0.0001495603508441838</v>
+        <v>1.833715704510065E-05</v>
       </c>
       <c r="P19">
-        <v>0.0003475468005501164</v>
+        <v>0.0003829305955036679</v>
       </c>
       <c r="Q19">
-        <v>0.0003870232760651443</v>
+        <v>0.0006045531075599941</v>
       </c>
       <c r="R19">
-        <v>0.0003044000575630289</v>
+        <v>0.004505191278329801</v>
       </c>
       <c r="S19">
-        <v>7.635919622681411E-10</v>
+        <v>2.196394398475081E-10</v>
       </c>
       <c r="T19">
-        <v>3.370807105590553E-07</v>
+        <v>3.546080530041441E-08</v>
       </c>
       <c r="U19">
-        <v>0.02561864775004507</v>
+        <v>0.0004875222273094524</v>
       </c>
     </row>
     <row r="20" spans="1:21">
       <c r="A20">
-        <v>0.0003111919961497615</v>
+        <v>0.002840721741041421</v>
       </c>
       <c r="B20">
-        <v>0.06338098458727322</v>
+        <v>0.7865498101258326</v>
       </c>
       <c r="C20">
-        <v>0.001256061425743024</v>
+        <v>0.04502625715362947</v>
       </c>
       <c r="D20">
-        <v>0.001785519627430043</v>
+        <v>0.05861454462476434</v>
       </c>
       <c r="E20">
-        <v>0.2284126538540599</v>
+        <v>3.677716401673161</v>
       </c>
       <c r="F20">
-        <v>0.01751781873063376</v>
+        <v>0.1970142954299811</v>
       </c>
       <c r="G20">
-        <v>7.111302556222774E-06</v>
+        <v>0.0002860356517643253</v>
       </c>
       <c r="H20">
-        <v>1.512078808214423E-06</v>
+        <v>3.820379849416218E-05</v>
       </c>
       <c r="I20">
-        <v>0.00726953046575206</v>
+        <v>0.03842833683389504</v>
       </c>
       <c r="J20">
-        <v>0.02462278264660207</v>
+        <v>0.7911679012801113</v>
       </c>
       <c r="K20">
-        <v>0.001004904558531991</v>
+        <v>0.08027073757458923</v>
       </c>
       <c r="L20">
-        <v>0.002203196399511323</v>
+        <v>0.01617315367762685</v>
       </c>
       <c r="M20">
-        <v>0.001078804860038357</v>
+        <v>0.008298706319724994</v>
       </c>
       <c r="N20">
-        <v>1.938158398598048E-08</v>
+        <v>3.009179196280748E-07</v>
       </c>
       <c r="O20">
-        <v>0.0001242060218188756</v>
+        <v>0.001561111738973549</v>
       </c>
       <c r="P20">
-        <v>0.0006545212109419823</v>
+        <v>0.002422870110832379</v>
       </c>
       <c r="Q20">
-        <v>0.0006688046468532213</v>
+        <v>0.002485676998380966</v>
       </c>
       <c r="R20">
-        <v>0.0001315162025420402</v>
+        <v>0.005126486680750639</v>
       </c>
       <c r="S20">
-        <v>3.577216147293989E-10</v>
+        <v>3.540145139419744E-09</v>
       </c>
       <c r="T20">
-        <v>1.675700211187159E-07</v>
+        <v>2.033461140154632E-06</v>
       </c>
       <c r="U20">
-        <v>0.007185428990547761</v>
+        <v>0.05049445730272705</v>
       </c>
     </row>
     <row r="21" spans="1:21">
       <c r="A21">
-        <v>-0.001960372342957913</v>
+        <v>0.0003053525269298775</v>
       </c>
       <c r="B21">
-        <v>-1.159673084962837</v>
+        <v>0.1899538957870924</v>
       </c>
       <c r="C21">
-        <v>-0.04537182770801647</v>
+        <v>0.00466367956445735</v>
       </c>
       <c r="D21">
-        <v>-0.06015808110811099</v>
+        <v>0.008280256864338066</v>
       </c>
       <c r="E21">
-        <v>-1.512129414089107</v>
+        <v>3.590255313400422</v>
       </c>
       <c r="F21">
-        <v>-0.110592633387694</v>
+        <v>0.05929106171555808</v>
       </c>
       <c r="G21">
-        <v>-0.000359627552719447</v>
+        <v>1.336079659134336E-05</v>
       </c>
       <c r="H21">
-        <v>-0.002855970011664068</v>
+        <v>5.282552523333986E-06</v>
       </c>
       <c r="I21">
-        <v>-0.02563737972369487</v>
+        <v>0.009731776675048227</v>
       </c>
       <c r="J21">
-        <v>-1.171873347886743</v>
+        <v>0.1466184951732519</v>
       </c>
       <c r="K21">
-        <v>-0.04337626180455813</v>
+        <v>0.00303142950846957</v>
       </c>
       <c r="L21">
-        <v>-0.01734705251319037</v>
+        <v>0.007092274067712158</v>
       </c>
       <c r="M21">
-        <v>-0.004300230413793837</v>
+        <v>0.002112406811640503</v>
       </c>
       <c r="N21">
-        <v>-5.116582500636089E-07</v>
+        <v>8.610568481109093E-08</v>
       </c>
       <c r="O21">
-        <v>-0.001009444994014417</v>
+        <v>0.0001495603508441838</v>
       </c>
       <c r="P21">
-        <v>-0.001151205703648336</v>
+        <v>0.0003475468005501164</v>
       </c>
       <c r="Q21">
-        <v>-0.001187084017987113</v>
+        <v>0.0003870232760651443</v>
       </c>
       <c r="R21">
-        <v>-0.003746186746939355</v>
+        <v>0.0003044000575630289</v>
       </c>
       <c r="S21">
-        <v>-4.270890991947131E-09</v>
+        <v>7.635919622681411E-10</v>
       </c>
       <c r="T21">
-        <v>-2.073714893426163E-06</v>
+        <v>3.370807105590553E-07</v>
       </c>
       <c r="U21">
-        <v>-0.0249960706493965</v>
+        <v>0.02561864775004507</v>
       </c>
     </row>
     <row r="22" spans="1:21">
       <c r="A22">
-        <v>0</v>
+        <v>0.0003111919961497615</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.06338098458727322</v>
       </c>
       <c r="C22">
-        <v>3.398999975751733E-07</v>
+        <v>0.001256061425743024</v>
       </c>
       <c r="D22">
-        <v>1.129599935331709E-06</v>
+        <v>0.001785519627430043</v>
       </c>
       <c r="E22">
-        <v>0.0002077599839442506</v>
+        <v>0.2284126538540599</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>0.01751781873063376</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>7.111302556222774E-06</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.512078808214423E-06</v>
       </c>
       <c r="I22">
-        <v>2.827999789014463E-05</v>
+        <v>0.00726953046575206</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.02462278264660207</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.001004904558531991</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.002203196399511323</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.001078804860038357</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1.938158398598048E-08</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.0001242060218188756</v>
       </c>
       <c r="P22">
-        <v>0.0003574599974417567</v>
+        <v>0.0006545212109419823</v>
       </c>
       <c r="Q22">
-        <v>0.0005781999816164141</v>
+        <v>0.0006688046468532213</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>0.0001315162025420402</v>
       </c>
       <c r="S22">
-        <v>7.44027197584704E-11</v>
+        <v>3.577216147293989E-10</v>
       </c>
       <c r="T22">
-        <v>4.189999694031545E-10</v>
+        <v>1.675700211187159E-07</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>0.007185428990547761</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23">
+        <v>-0.001960372342957913</v>
+      </c>
+      <c r="B23">
+        <v>-1.159673084962837</v>
+      </c>
+      <c r="C23">
+        <v>-0.04537182770801647</v>
+      </c>
+      <c r="D23">
+        <v>-0.06015808110811099</v>
+      </c>
+      <c r="E23">
+        <v>-1.512129414089107</v>
+      </c>
+      <c r="F23">
+        <v>-0.110592633387694</v>
+      </c>
+      <c r="G23">
+        <v>-0.000359627552719447</v>
+      </c>
+      <c r="H23">
+        <v>-0.002855970011664068</v>
+      </c>
+      <c r="I23">
+        <v>-0.02563737972369487</v>
+      </c>
+      <c r="J23">
+        <v>-1.171873347886743</v>
+      </c>
+      <c r="K23">
+        <v>-0.04337626180455813</v>
+      </c>
+      <c r="L23">
+        <v>-0.01734705251319037</v>
+      </c>
+      <c r="M23">
+        <v>-0.004300230413793837</v>
+      </c>
+      <c r="N23">
+        <v>-5.116582500636089E-07</v>
+      </c>
+      <c r="O23">
+        <v>-0.001009444994014417</v>
+      </c>
+      <c r="P23">
+        <v>-0.001151205703648336</v>
+      </c>
+      <c r="Q23">
+        <v>-0.001187084017987113</v>
+      </c>
+      <c r="R23">
+        <v>-0.003746186746939355</v>
+      </c>
+      <c r="S23">
+        <v>-4.270890991947131E-09</v>
+      </c>
+      <c r="T23">
+        <v>-2.073714893426163E-06</v>
+      </c>
+      <c r="U23">
+        <v>-0.0249960706493965</v>
       </c>
     </row>
   </sheetData>

--- a/Brighway/Results/Ananas - APOS_recipe_unq.xlsx
+++ b/Brighway/Results/Ananas - APOS_recipe_unq.xlsx
@@ -1027,67 +1027,67 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10">
-        <v>-0.001398397578099151</v>
+        <v>-0.001398397578324113</v>
       </c>
       <c r="B10">
-        <v>-1.664456847699325</v>
+        <v>-1.664456847726596</v>
       </c>
       <c r="C10">
-        <v>-0.01833915533971636</v>
+        <v>-0.0183391553523735</v>
       </c>
       <c r="D10">
-        <v>-0.02434508699360618</v>
+        <v>-0.02434508700989478</v>
       </c>
       <c r="E10">
-        <v>-0.1475127942075781</v>
+        <v>-0.1475127952729112</v>
       </c>
       <c r="F10">
-        <v>-0.02691727953374713</v>
+        <v>-0.0269172795392619</v>
       </c>
       <c r="G10">
-        <v>-9.761806801988184E-06</v>
+        <v>-9.761806822244315E-06</v>
       </c>
       <c r="H10">
-        <v>-0.0002333030147347097</v>
+        <v>-0.0002333030147358924</v>
       </c>
       <c r="I10">
-        <v>-0.006488520465459786</v>
+        <v>-0.00648852047260864</v>
       </c>
       <c r="J10">
-        <v>-0.4347469518951495</v>
+        <v>-0.4347469521097224</v>
       </c>
       <c r="K10">
-        <v>-0.001827152488167698</v>
+        <v>-0.001827152489059808</v>
       </c>
       <c r="L10">
-        <v>-0.00079841656523842</v>
+        <v>-0.0007984171184080833</v>
       </c>
       <c r="M10">
-        <v>-0.002098156437304584</v>
+        <v>-0.002098156439395733</v>
       </c>
       <c r="N10">
-        <v>-1.167375885956466E-05</v>
+        <v>-1.167375885957236E-05</v>
       </c>
       <c r="O10">
-        <v>-0.00043883039973995</v>
+        <v>-0.0004388303998260935</v>
       </c>
       <c r="P10">
-        <v>-0.003158334709378711</v>
+        <v>-0.003158334709470343</v>
       </c>
       <c r="Q10">
-        <v>-0.003169012312420285</v>
+        <v>-0.003169012312515226</v>
       </c>
       <c r="R10">
-        <v>-0.002121980057042055</v>
+        <v>-0.002121980057216368</v>
       </c>
       <c r="S10">
-        <v>-5.396405680777191E-09</v>
+        <v>-5.396405685860026E-09</v>
       </c>
       <c r="T10">
-        <v>-1.955570222927954E-06</v>
+        <v>-1.955570223080516E-06</v>
       </c>
       <c r="U10">
-        <v>-0.009696643846595051</v>
+        <v>-0.00969664384856146</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1612,67 +1612,67 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19">
-        <v>9.169020957333832E-05</v>
+        <v>0.0001368194050296388</v>
       </c>
       <c r="B19">
-        <v>0.01110582661084205</v>
+        <v>0.02790809754988375</v>
       </c>
       <c r="C19">
-        <v>0.0005250900212907181</v>
+        <v>0.0009668459468262328</v>
       </c>
       <c r="D19">
-        <v>0.0004536304933790997</v>
+        <v>0.001040972627569172</v>
       </c>
       <c r="E19">
-        <v>0.02311448572983808</v>
+        <v>0.05639194631342376</v>
       </c>
       <c r="F19">
-        <v>0.001427595743137386</v>
+        <v>0.01144523360120813</v>
       </c>
       <c r="G19">
-        <v>4.858506454366275E-06</v>
+        <v>9.168122275827267E-06</v>
       </c>
       <c r="H19">
-        <v>4.740107984935163E-05</v>
+        <v>4.798860277048567E-05</v>
       </c>
       <c r="I19">
-        <v>0.0003273023621656155</v>
+        <v>0.001003582302237275</v>
       </c>
       <c r="J19">
-        <v>0.009405026619219457</v>
+        <v>0.01962572030877562</v>
       </c>
       <c r="K19">
-        <v>0.0003016755496993891</v>
+        <v>0.001637837143294385</v>
       </c>
       <c r="L19">
-        <v>0.009830091315993791</v>
+        <v>0.01027492671343662</v>
       </c>
       <c r="M19">
-        <v>5.667838303461788E-05</v>
+        <v>0.0001650910541295891</v>
       </c>
       <c r="N19">
-        <v>6.881795467078997E-08</v>
+        <v>7.182349321021425E-08</v>
       </c>
       <c r="O19">
-        <v>1.833715704510065E-05</v>
+        <v>3.748100180819421E-05</v>
       </c>
       <c r="P19">
-        <v>0.0003829305955036679</v>
+        <v>0.000420584232705547</v>
       </c>
       <c r="Q19">
-        <v>0.0006045531075599941</v>
+        <v>0.0006459375820386859</v>
       </c>
       <c r="R19">
-        <v>0.004505191278329801</v>
+        <v>0.004767416850249974</v>
       </c>
       <c r="S19">
-        <v>2.196394398475081E-10</v>
+        <v>2.891879673394147E-10</v>
       </c>
       <c r="T19">
-        <v>3.546080530041441E-08</v>
+        <v>6.828579298700185E-08</v>
       </c>
       <c r="U19">
-        <v>0.0004875222273094524</v>
+        <v>0.004276333307865379</v>
       </c>
     </row>
     <row r="20" spans="1:21">

--- a/Brighway/Results/Ananas - APOS_recipe_unq.xlsx
+++ b/Brighway/Results/Ananas - APOS_recipe_unq.xlsx
@@ -507,132 +507,132 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2">
-        <v>-0.0001933860012398209</v>
+        <v>0.0003053525269298775</v>
       </c>
       <c r="B2">
-        <v>-3.020793310170105</v>
+        <v>0.1899538957870924</v>
       </c>
       <c r="C2">
-        <v>-0.1585863090816216</v>
+        <v>0.00466367956445735</v>
       </c>
       <c r="D2">
-        <v>-0.2296331743945009</v>
+        <v>0.008280256864338066</v>
       </c>
       <c r="E2">
-        <v>-8.83329545628767</v>
+        <v>3.590255313400422</v>
       </c>
       <c r="F2">
-        <v>-0.00500326210395197</v>
+        <v>0.05929106171555808</v>
       </c>
       <c r="G2">
-        <v>-2.655623045844502E-06</v>
+        <v>1.336079659134336E-05</v>
       </c>
       <c r="H2">
-        <v>-4.73200022700342E-06</v>
+        <v>5.282552523333986E-06</v>
       </c>
       <c r="I2">
-        <v>-0.009831377171702549</v>
+        <v>0.009731776675048227</v>
       </c>
       <c r="J2">
-        <v>-1.917643191230086</v>
+        <v>0.1466184951732519</v>
       </c>
       <c r="K2">
-        <v>-0.0004283465253626049</v>
+        <v>0.00303142950846957</v>
       </c>
       <c r="L2">
-        <v>-0.0003125674027691724</v>
+        <v>0.007092274067712158</v>
       </c>
       <c r="M2">
-        <v>-0.0006251338066822399</v>
+        <v>0.002112406811640503</v>
       </c>
       <c r="N2">
-        <v>-2.204923862461534E-07</v>
+        <v>8.610568481109093E-08</v>
       </c>
       <c r="O2">
-        <v>-6.373949598740527E-05</v>
+        <v>0.0001495603508441838</v>
       </c>
       <c r="P2">
-        <v>-0.0004646641416061593</v>
+        <v>0.0003475468005501164</v>
       </c>
       <c r="Q2">
-        <v>-0.0004671485309993551</v>
+        <v>0.0003870232760651443</v>
       </c>
       <c r="R2">
-        <v>-0.001527600900235879</v>
+        <v>0.0003044000575630289</v>
       </c>
       <c r="S2">
-        <v>-8.799309251065579E-09</v>
+        <v>7.635919622681411E-10</v>
       </c>
       <c r="T2">
-        <v>-3.317366287651595E-06</v>
+        <v>3.370807105590553E-07</v>
       </c>
       <c r="U2">
-        <v>-0.001836593967776481</v>
+        <v>0.02561864775004507</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3">
-        <v>-0.0001646121334738448</v>
+        <v>0.0001987390714038411</v>
       </c>
       <c r="B3">
-        <v>-2.551379084429979</v>
+        <v>0.01647290085403625</v>
       </c>
       <c r="C3">
-        <v>-0.133937321074253</v>
+        <v>0.000237266737870855</v>
       </c>
       <c r="D3">
-        <v>-0.1939394978887417</v>
+        <v>0.000372930629251724</v>
       </c>
       <c r="E3">
-        <v>-7.46096673552746</v>
+        <v>0.1010706005748854</v>
       </c>
       <c r="F3">
-        <v>-0.004357871306671259</v>
+        <v>0.004679762090560555</v>
       </c>
       <c r="G3">
-        <v>-2.41420089880321E-06</v>
+        <v>9.647173062369085E-07</v>
       </c>
       <c r="H3">
-        <v>-4.015526133868368E-06</v>
+        <v>3.712469018505826E-07</v>
       </c>
       <c r="I3">
-        <v>-0.008600984277489053</v>
+        <v>0.0009929662108154891</v>
       </c>
       <c r="J3">
-        <v>-1.619602095607829</v>
+        <v>0.005452343924482315</v>
       </c>
       <c r="K3">
-        <v>-0.0003773715144930428</v>
+        <v>0.0001450796238951138</v>
       </c>
       <c r="L3">
-        <v>-0.0002772553029628169</v>
+        <v>0.0002847321094696718</v>
       </c>
       <c r="M3">
-        <v>-0.0005834807708410438</v>
+        <v>0.0001673101742400157</v>
       </c>
       <c r="N3">
-        <v>-1.862772741806203E-07</v>
+        <v>7.18925514940507E-09</v>
       </c>
       <c r="O3">
-        <v>-5.5543192425399E-05</v>
+        <v>6.630469968202905E-05</v>
       </c>
       <c r="P3">
-        <v>-0.0003938720993397902</v>
+        <v>0.0002234007527847648</v>
       </c>
       <c r="Q3">
-        <v>-0.0003961234664064016</v>
+        <v>0.0002271348884061887</v>
       </c>
       <c r="R3">
-        <v>-0.00144933088985733</v>
+        <v>2.011050217271342E-05</v>
       </c>
       <c r="S3">
-        <v>-7.432650744868657E-09</v>
+        <v>1.220923295214276E-10</v>
       </c>
       <c r="T3">
-        <v>-2.804270945660612E-06</v>
+        <v>6.173915591139755E-08</v>
       </c>
       <c r="U3">
-        <v>-0.00160039198459813</v>
+        <v>0.00202418807566826</v>
       </c>
     </row>
     <row r="4" spans="1:21">

--- a/Brighway/Results/Ananas - APOS_recipe_unq.xlsx
+++ b/Brighway/Results/Ananas - APOS_recipe_unq.xlsx
@@ -507,262 +507,262 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2">
-        <v>0.0003053525269298775</v>
+        <v>-0.0001933860012398209</v>
       </c>
       <c r="B2">
-        <v>0.1899538957870924</v>
+        <v>-3.020793310170105</v>
       </c>
       <c r="C2">
-        <v>0.00466367956445735</v>
+        <v>-0.1585863090816216</v>
       </c>
       <c r="D2">
-        <v>0.008280256864338066</v>
+        <v>-0.2296331743945009</v>
       </c>
       <c r="E2">
-        <v>3.590255313400422</v>
+        <v>-8.83329545628767</v>
       </c>
       <c r="F2">
-        <v>0.05929106171555808</v>
+        <v>-0.00500326210395197</v>
       </c>
       <c r="G2">
-        <v>1.336079659134336E-05</v>
+        <v>-2.655623045844502E-06</v>
       </c>
       <c r="H2">
-        <v>5.282552523333986E-06</v>
+        <v>-4.73200022700342E-06</v>
       </c>
       <c r="I2">
-        <v>0.009731776675048227</v>
+        <v>-0.009831377171702549</v>
       </c>
       <c r="J2">
-        <v>0.1466184951732519</v>
+        <v>-1.917643191230086</v>
       </c>
       <c r="K2">
-        <v>0.00303142950846957</v>
+        <v>-0.0004283465253626049</v>
       </c>
       <c r="L2">
-        <v>0.007092274067712158</v>
+        <v>-0.0003125674027691724</v>
       </c>
       <c r="M2">
-        <v>0.002112406811640503</v>
+        <v>-0.0006251338066822399</v>
       </c>
       <c r="N2">
-        <v>8.610568481109093E-08</v>
+        <v>-2.204923862461534E-07</v>
       </c>
       <c r="O2">
-        <v>0.0001495603508441838</v>
+        <v>-6.373949598740527E-05</v>
       </c>
       <c r="P2">
-        <v>0.0003475468005501164</v>
+        <v>-0.0004646641416061593</v>
       </c>
       <c r="Q2">
-        <v>0.0003870232760651443</v>
+        <v>-0.0004671485309993551</v>
       </c>
       <c r="R2">
-        <v>0.0003044000575630289</v>
+        <v>-0.001527600900235879</v>
       </c>
       <c r="S2">
-        <v>7.635919622681411E-10</v>
+        <v>-8.799309251065579E-09</v>
       </c>
       <c r="T2">
-        <v>3.370807105590553E-07</v>
+        <v>-3.317366287651595E-06</v>
       </c>
       <c r="U2">
-        <v>0.02561864775004507</v>
+        <v>-0.001836593967776481</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3">
-        <v>0.0001987390714038411</v>
+        <v>-0.0001646121334738448</v>
       </c>
       <c r="B3">
-        <v>0.01647290085403625</v>
+        <v>-2.551379084429979</v>
       </c>
       <c r="C3">
-        <v>0.000237266737870855</v>
+        <v>-0.133937321074253</v>
       </c>
       <c r="D3">
-        <v>0.000372930629251724</v>
+        <v>-0.1939394978887417</v>
       </c>
       <c r="E3">
-        <v>0.1010706005748854</v>
+        <v>-7.46096673552746</v>
       </c>
       <c r="F3">
-        <v>0.004679762090560555</v>
+        <v>-0.004357871306671259</v>
       </c>
       <c r="G3">
-        <v>9.647173062369085E-07</v>
+        <v>-2.41420089880321E-06</v>
       </c>
       <c r="H3">
-        <v>3.712469018505826E-07</v>
+        <v>-4.015526133868368E-06</v>
       </c>
       <c r="I3">
-        <v>0.0009929662108154891</v>
+        <v>-0.008600984277489053</v>
       </c>
       <c r="J3">
-        <v>0.005452343924482315</v>
+        <v>-1.619602095607829</v>
       </c>
       <c r="K3">
-        <v>0.0001450796238951138</v>
+        <v>-0.0003773715144930428</v>
       </c>
       <c r="L3">
-        <v>0.0002847321094696718</v>
+        <v>-0.0002772553029628169</v>
       </c>
       <c r="M3">
-        <v>0.0001673101742400157</v>
+        <v>-0.0005834807708410438</v>
       </c>
       <c r="N3">
-        <v>7.18925514940507E-09</v>
+        <v>-1.862772741806203E-07</v>
       </c>
       <c r="O3">
-        <v>6.630469968202905E-05</v>
+        <v>-5.5543192425399E-05</v>
       </c>
       <c r="P3">
-        <v>0.0002234007527847648</v>
+        <v>-0.0003938720993397902</v>
       </c>
       <c r="Q3">
-        <v>0.0002271348884061887</v>
+        <v>-0.0003961234664064016</v>
       </c>
       <c r="R3">
-        <v>2.011050217271342E-05</v>
+        <v>-0.00144933088985733</v>
       </c>
       <c r="S3">
-        <v>1.220923295214276E-10</v>
+        <v>-7.432650744868657E-09</v>
       </c>
       <c r="T3">
-        <v>6.173915591139755E-08</v>
+        <v>-2.804270945660612E-06</v>
       </c>
       <c r="U3">
-        <v>0.00202418807566826</v>
+        <v>-0.00160039198459813</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4">
-        <v>0.006490748653039479</v>
+        <v>-0.001398397578324113</v>
       </c>
       <c r="B4">
-        <v>0.5669938725007834</v>
+        <v>-1.664456847726596</v>
       </c>
       <c r="C4">
-        <v>0.5126269710064938</v>
+        <v>-0.0183391553523735</v>
       </c>
       <c r="D4">
-        <v>0.6554899397235792</v>
+        <v>-0.02434508700989478</v>
       </c>
       <c r="E4">
-        <v>44.95788828713172</v>
+        <v>-0.1475127952729112</v>
       </c>
       <c r="F4">
-        <v>0.1431501698993794</v>
+        <v>-0.0269172795392619</v>
       </c>
       <c r="G4">
-        <v>0.0007222434622262911</v>
+        <v>-9.761806822244315E-06</v>
       </c>
       <c r="H4">
-        <v>2.227253943447866E-05</v>
+        <v>-0.0002333030147358924</v>
       </c>
       <c r="I4">
-        <v>0.07328943096762157</v>
+        <v>-0.00648852047260864</v>
       </c>
       <c r="J4">
-        <v>7.492091894948834</v>
+        <v>-0.4347469521097224</v>
       </c>
       <c r="K4">
-        <v>0.05105694580376416</v>
+        <v>-0.001827152489059808</v>
       </c>
       <c r="L4">
-        <v>0.03497457077087002</v>
+        <v>-0.0007984171184080833</v>
       </c>
       <c r="M4">
-        <v>0.02634864207588051</v>
+        <v>-0.002098156439395733</v>
       </c>
       <c r="N4">
-        <v>2.485598671654166E-07</v>
+        <v>-1.167375885957236E-05</v>
       </c>
       <c r="O4">
-        <v>0.002256762926213943</v>
+        <v>-0.0004388303998260935</v>
       </c>
       <c r="P4">
-        <v>0.001651215661479807</v>
+        <v>-0.003158334709470343</v>
       </c>
       <c r="Q4">
-        <v>0.001720588478344466</v>
+        <v>-0.003169012312515226</v>
       </c>
       <c r="R4">
-        <v>0.004639160350193732</v>
+        <v>-0.002121980057216368</v>
       </c>
       <c r="S4">
-        <v>4.917005014889028E-09</v>
+        <v>-5.396405685860026E-09</v>
       </c>
       <c r="T4">
-        <v>3.907187340241239E-06</v>
+        <v>-1.955570223080516E-06</v>
       </c>
       <c r="U4">
-        <v>0.04691174409745602</v>
+        <v>-0.00969664384856146</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5">
-        <v>0.008734348347380119</v>
+        <v>-0.0002716546420837818</v>
       </c>
       <c r="B5">
-        <v>2.913803432836056</v>
+        <v>-2.373839736559359</v>
       </c>
       <c r="C5">
-        <v>0.2346523419206283</v>
+        <v>-0.1201199389479893</v>
       </c>
       <c r="D5">
-        <v>0.3035103140513675</v>
+        <v>-0.1599610761090779</v>
       </c>
       <c r="E5">
-        <v>9.605177229599274</v>
+        <v>-1.265781194169008</v>
       </c>
       <c r="F5">
-        <v>0.6626235582250091</v>
+        <v>-0.007903464419954941</v>
       </c>
       <c r="G5">
-        <v>0.001700617149422695</v>
+        <v>-5.236324556791583E-06</v>
       </c>
       <c r="H5">
-        <v>0.0003605778216237629</v>
+        <v>-2.145683914477357E-05</v>
       </c>
       <c r="I5">
-        <v>0.2072702021705159</v>
+        <v>-0.02399119022272976</v>
       </c>
       <c r="J5">
-        <v>4.470497421930782</v>
+        <v>-2.349946984803219</v>
       </c>
       <c r="K5">
-        <v>0.8930473977188667</v>
+        <v>-0.001044696331679713</v>
       </c>
       <c r="L5">
-        <v>0.1517817806540068</v>
+        <v>-0.0005566572793466944</v>
       </c>
       <c r="M5">
-        <v>0.0267211037704396</v>
+        <v>-0.001265723189307506</v>
       </c>
       <c r="N5">
-        <v>1.197643719160736E-06</v>
+        <v>-1.017244141792448E-06</v>
       </c>
       <c r="O5">
-        <v>0.003430798736837689</v>
+        <v>-9.178312963670392E-05</v>
       </c>
       <c r="P5">
-        <v>0.004841481806652221</v>
+        <v>-0.0006027119753270859</v>
       </c>
       <c r="Q5">
-        <v>0.005099574409636398</v>
+        <v>-0.0006068256952674337</v>
       </c>
       <c r="R5">
-        <v>0.08932459012356417</v>
+        <v>-0.003723410345889685</v>
       </c>
       <c r="S5">
-        <v>1.34594170069725E-08</v>
+        <v>-6.905675081024608E-09</v>
       </c>
       <c r="T5">
-        <v>6.777770806896655E-06</v>
+        <v>-2.885749900426476E-06</v>
       </c>
       <c r="U5">
-        <v>0.1691637563440419</v>
+        <v>-0.00298372465004401</v>
       </c>
     </row>
     <row r="6" spans="1:21">

--- a/Brighway/Results/Ananas - APOS_recipe_unq.xlsx
+++ b/Brighway/Results/Ananas - APOS_recipe_unq.xlsx
@@ -16,67 +16,67 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'acidification: terrestrial', 'terrestrial acidification potential (TAP)')</t>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'acidification: terrestrial', 'terrestrial acidification potential (TAP)')</t>
   </si>
   <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'climate change', 'global warming potential (GWP1000)')</t>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'climate change', 'global warming potential (GWP1000)')</t>
   </si>
   <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'ecotoxicity: freshwater', 'freshwater ecotoxicity potential (FETP)')</t>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ecotoxicity: freshwater', 'freshwater ecotoxicity potential (FETP)')</t>
   </si>
   <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'ecotoxicity: marine', 'marine ecotoxicity potential (METP)')</t>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ecotoxicity: marine', 'marine ecotoxicity potential (METP)')</t>
   </si>
   <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'ecotoxicity: terrestrial', 'terrestrial ecotoxicity potential (TETP)')</t>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ecotoxicity: terrestrial', 'terrestrial ecotoxicity potential (TETP)')</t>
   </si>
   <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'energy resources: non-renewable, fossil', 'fossil fuel potential (FFP)')</t>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'energy resources: non-renewable, fossil', 'fossil fuel potential (FFP)')</t>
   </si>
   <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'eutrophication: freshwater', 'freshwater eutrophication potential (FEP)')</t>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'eutrophication: freshwater', 'freshwater eutrophication potential (FEP)')</t>
   </si>
   <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'eutrophication: marine', 'marine eutrophication potential (MEP)')</t>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'eutrophication: marine', 'marine eutrophication potential (MEP)')</t>
   </si>
   <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'human toxicity: carcinogenic', 'human toxicity potential (HTPc)')</t>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'human toxicity: carcinogenic', 'human toxicity potential (HTPc)')</t>
   </si>
   <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'human toxicity: non-carcinogenic', 'human toxicity potential (HTPnc)')</t>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'human toxicity: non-carcinogenic', 'human toxicity potential (HTPnc)')</t>
   </si>
   <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'ionising radiation', 'ionising radiation potential (IRP)')</t>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ionising radiation', 'ionising radiation potential (IRP)')</t>
   </si>
   <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'land use', 'agricultural land occupation (LOP)')</t>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'land use', 'agricultural land occupation (LOP)')</t>
   </si>
   <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'material resources: metals/minerals', 'surplus ore potential (SOP)')</t>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'material resources: metals/minerals', 'surplus ore potential (SOP)')</t>
   </si>
   <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'ozone depletion', 'ozone depletion potential (ODPinfinite)')</t>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ozone depletion', 'ozone depletion potential (ODPinfinite)')</t>
   </si>
   <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'particulate matter formation', 'particulate matter formation potential (PMFP)')</t>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'particulate matter formation', 'particulate matter formation potential (PMFP)')</t>
   </si>
   <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'photochemical oxidant formation: human health', 'photochemical oxidant formation potential: humans (HOFP)')</t>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'photochemical oxidant formation: human health', 'photochemical oxidant formation potential: humans (HOFP)')</t>
   </si>
   <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'photochemical oxidant formation: terrestrial ecosystems', 'photochemical oxidant formation potential: ecosystems (EOFP)')</t>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'photochemical oxidant formation: terrestrial ecosystems', 'photochemical oxidant formation potential: ecosystems (EOFP)')</t>
   </si>
   <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'water use', 'water consumption potential (WCP)')</t>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'water use', 'water consumption potential (WCP)')</t>
   </si>
   <si>
-    <t>('ReCiPe 2016 v1.03, endpoint (H)', 'total: ecosystem quality', 'ecosystem quality')</t>
+    <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: ecosystem quality', 'ecosystem quality')</t>
   </si>
   <si>
-    <t>('ReCiPe 2016 v1.03, endpoint (H)', 'total: human health', 'human health')</t>
+    <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: human health', 'human health')</t>
   </si>
   <si>
-    <t>('ReCiPe 2016 v1.03, endpoint (H)', 'total: natural resources', 'natural resources')</t>
+    <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: natural resources', 'natural resources')</t>
   </si>
 </sst>
 </file>
@@ -434,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U23"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -507,1432 +507,1562 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2">
-        <v>-0.0001933860012398209</v>
+        <v>-0.0001933860213126046</v>
       </c>
       <c r="B2">
-        <v>-3.020793310170105</v>
+        <v>-3.020426947445171</v>
       </c>
       <c r="C2">
-        <v>-0.1585863090816216</v>
+        <v>-0.1585863093342595</v>
       </c>
       <c r="D2">
-        <v>-0.2296331743945009</v>
+        <v>-0.22963317474598</v>
       </c>
       <c r="E2">
-        <v>-8.83329545628767</v>
+        <v>-8.833295490256482</v>
       </c>
       <c r="F2">
-        <v>-0.00500326210395197</v>
+        <v>-0.005003263454369312</v>
       </c>
       <c r="G2">
-        <v>-2.655623045844502E-06</v>
+        <v>-2.655624556806632E-06</v>
       </c>
       <c r="H2">
-        <v>-4.73200022700342E-06</v>
+        <v>-4.732000422856896E-06</v>
       </c>
       <c r="I2">
-        <v>-0.009831377171702549</v>
+        <v>-0.009831379231310318</v>
       </c>
       <c r="J2">
-        <v>-1.917643191230086</v>
+        <v>-1.917643196440264</v>
       </c>
       <c r="K2">
-        <v>-0.0004283465253626049</v>
+        <v>-0.0004283467008175528</v>
       </c>
       <c r="L2">
-        <v>-0.0003125674027691724</v>
+        <v>-0.0003125671983269813</v>
       </c>
       <c r="M2">
-        <v>-0.0006251338066822399</v>
+        <v>-0.0006251340313694396</v>
       </c>
       <c r="N2">
-        <v>-2.204923862461534E-07</v>
+        <v>-2.204923883342836E-07</v>
       </c>
       <c r="O2">
-        <v>-6.373949598740527E-05</v>
+        <v>-6.373950810845328E-05</v>
       </c>
       <c r="P2">
-        <v>-0.0004646641416061593</v>
+        <v>-0.0004646641648935511</v>
       </c>
       <c r="Q2">
-        <v>-0.0004671485309993551</v>
+        <v>-0.0004671485550237354</v>
       </c>
       <c r="R2">
-        <v>-0.001527600900235879</v>
+        <v>-0.001527600926881846</v>
       </c>
       <c r="S2">
-        <v>-8.799309251065579E-09</v>
+        <v>-8.79828341459875E-09</v>
       </c>
       <c r="T2">
-        <v>-3.317366287651595E-06</v>
+        <v>-3.31702627688527E-06</v>
       </c>
       <c r="U2">
-        <v>-0.001836593967776481</v>
+        <v>-0.001836594396254615</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3">
-        <v>-0.0001646121334738448</v>
+        <v>-0.0001646121429095323</v>
       </c>
       <c r="B3">
-        <v>-2.551379084429979</v>
+        <v>-2.551055183136315</v>
       </c>
       <c r="C3">
-        <v>-0.133937321074253</v>
+        <v>-0.1339373211938241</v>
       </c>
       <c r="D3">
-        <v>-0.1939394978887417</v>
+        <v>-0.1939394980558523</v>
       </c>
       <c r="E3">
-        <v>-7.46096673552746</v>
+        <v>-7.460966752369337</v>
       </c>
       <c r="F3">
-        <v>-0.004357871306671259</v>
+        <v>-0.00435787199419135</v>
       </c>
       <c r="G3">
-        <v>-2.41420089880321E-06</v>
+        <v>-2.414201661388316E-06</v>
       </c>
       <c r="H3">
-        <v>-4.015526133868368E-06</v>
+        <v>-4.015526219687787E-06</v>
       </c>
       <c r="I3">
-        <v>-0.008600984277489053</v>
+        <v>-0.008600985365453952</v>
       </c>
       <c r="J3">
-        <v>-1.619602095607829</v>
+        <v>-1.619602097943666</v>
       </c>
       <c r="K3">
-        <v>-0.0003773715144930428</v>
+        <v>-0.0003773716057670341</v>
       </c>
       <c r="L3">
-        <v>-0.0002772553029628169</v>
+        <v>-0.0002772554179379304</v>
       </c>
       <c r="M3">
-        <v>-0.0005834807708410438</v>
+        <v>-0.0005834808811521514</v>
       </c>
       <c r="N3">
-        <v>-1.862772741806203E-07</v>
+        <v>-1.862772752716602E-07</v>
       </c>
       <c r="O3">
-        <v>-5.5543192425399E-05</v>
+        <v>-5.554319856750769E-05</v>
       </c>
       <c r="P3">
-        <v>-0.0003938720993397902</v>
+        <v>-0.0003938721112528457</v>
       </c>
       <c r="Q3">
-        <v>-0.0003961234664064016</v>
+        <v>-0.0003961234786869446</v>
       </c>
       <c r="R3">
-        <v>-0.00144933088985733</v>
+        <v>-0.001449330903041984</v>
       </c>
       <c r="S3">
-        <v>-7.432650744868657E-09</v>
+        <v>-7.431743801909519E-09</v>
       </c>
       <c r="T3">
-        <v>-2.804270945660612E-06</v>
+        <v>-2.803970337042976E-06</v>
       </c>
       <c r="U3">
-        <v>-0.00160039198459813</v>
+        <v>-0.001600392200519443</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4">
-        <v>-0.001398397578324113</v>
+        <v>0.006490748708424325</v>
       </c>
       <c r="B4">
-        <v>-1.664456847726596</v>
+        <v>0.5144199093821502</v>
       </c>
       <c r="C4">
-        <v>-0.0183391553523735</v>
+        <v>0.5126269719691328</v>
       </c>
       <c r="D4">
-        <v>-0.02434508700989478</v>
+        <v>0.6554899410231377</v>
       </c>
       <c r="E4">
-        <v>-0.1475127952729112</v>
+        <v>44.9578883931368</v>
       </c>
       <c r="F4">
-        <v>-0.0269172795392619</v>
+        <v>0.1431501730721036</v>
       </c>
       <c r="G4">
-        <v>-9.761806822244315E-06</v>
+        <v>0.0007222434662897181</v>
       </c>
       <c r="H4">
-        <v>-0.0002333030147358924</v>
+        <v>2.22725399746514E-05</v>
       </c>
       <c r="I4">
-        <v>-0.00648852047260864</v>
+        <v>0.07328943569864026</v>
       </c>
       <c r="J4">
-        <v>-0.4347469521097224</v>
+        <v>7.492091914340637</v>
       </c>
       <c r="K4">
-        <v>-0.001827152489059808</v>
+        <v>0.05105694624585565</v>
       </c>
       <c r="L4">
-        <v>-0.0007984171184080833</v>
+        <v>0.03497460223392223</v>
       </c>
       <c r="M4">
-        <v>-0.002098156439395733</v>
+        <v>0.02634864267098189</v>
       </c>
       <c r="N4">
-        <v>-1.167375885957236E-05</v>
+        <v>2.485598720958705E-07</v>
       </c>
       <c r="O4">
-        <v>-0.0004388303998260935</v>
+        <v>0.002256762956399501</v>
       </c>
       <c r="P4">
-        <v>-0.003158334709470343</v>
+        <v>0.001651215716660249</v>
       </c>
       <c r="Q4">
-        <v>-0.003169012312515226</v>
+        <v>0.00172058853512832</v>
       </c>
       <c r="R4">
-        <v>-0.002121980057216368</v>
+        <v>0.004639160417674957</v>
       </c>
       <c r="S4">
-        <v>-5.396405685860026E-09</v>
+        <v>4.769794204374197E-09</v>
       </c>
       <c r="T4">
-        <v>-1.955570223080516E-06</v>
+        <v>3.858391572333142E-06</v>
       </c>
       <c r="U4">
-        <v>-0.00969664384856146</v>
+        <v>0.0469117451092436</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5">
-        <v>-0.0002716546420837818</v>
+        <v>0.008734351180692724</v>
       </c>
       <c r="B5">
-        <v>-2.373839736559359</v>
+        <v>2.437375998193764</v>
       </c>
       <c r="C5">
-        <v>-0.1201199389479893</v>
+        <v>0.23465237171246</v>
       </c>
       <c r="D5">
-        <v>-0.1599610761090779</v>
+        <v>0.3035103564191078</v>
       </c>
       <c r="E5">
-        <v>-1.265781194169008</v>
+        <v>9.605181902522016</v>
       </c>
       <c r="F5">
-        <v>-0.007903464419954941</v>
+        <v>0.662623763541671</v>
       </c>
       <c r="G5">
-        <v>-5.236324556791583E-06</v>
+        <v>0.001700617370254118</v>
       </c>
       <c r="H5">
-        <v>-2.145683914477357E-05</v>
+        <v>0.000360577848043252</v>
       </c>
       <c r="I5">
-        <v>-0.02399119022272976</v>
+        <v>0.2072705184443658</v>
       </c>
       <c r="J5">
-        <v>-2.349946984803219</v>
+        <v>4.470498066585846</v>
       </c>
       <c r="K5">
-        <v>-0.001044696331679713</v>
+        <v>0.8930474237290869</v>
       </c>
       <c r="L5">
-        <v>-0.0005566572793466944</v>
+        <v>0.1517816122302373</v>
       </c>
       <c r="M5">
-        <v>-0.001265723189307506</v>
+        <v>0.02672113712245664</v>
       </c>
       <c r="N5">
-        <v>-1.017244141792448E-06</v>
+        <v>1.19764404515119E-06</v>
       </c>
       <c r="O5">
-        <v>-9.178312963670392E-05</v>
+        <v>0.003430800562859818</v>
       </c>
       <c r="P5">
-        <v>-0.0006027119753270859</v>
+        <v>0.00484148538567713</v>
       </c>
       <c r="Q5">
-        <v>-0.0006068256952674337</v>
+        <v>0.005099578097932316</v>
       </c>
       <c r="R5">
-        <v>-0.003723410345889685</v>
+        <v>0.08932459405303397</v>
       </c>
       <c r="S5">
-        <v>-6.905675081024608E-09</v>
+        <v>1.212538359337485E-08</v>
       </c>
       <c r="T5">
-        <v>-2.885749900426476E-06</v>
+        <v>6.335539933298331E-06</v>
       </c>
       <c r="U5">
-        <v>-0.00298372465004401</v>
+        <v>0.1691638213652371</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6">
-        <v>0.06467968742789991</v>
+        <v>0.06467968655717352</v>
       </c>
       <c r="B6">
-        <v>14.45532617505729</v>
+        <v>14.37138819009135</v>
       </c>
       <c r="C6">
-        <v>0.5998096237748555</v>
+        <v>0.5998096299322714</v>
       </c>
       <c r="D6">
-        <v>0.7907094676121305</v>
+        <v>0.7907094739601166</v>
       </c>
       <c r="E6">
-        <v>16.21590412729874</v>
+        <v>16.21590434358562</v>
       </c>
       <c r="F6">
-        <v>3.035801246675014</v>
+        <v>3.035801176463265</v>
       </c>
       <c r="G6">
-        <v>0.00449274780944814</v>
+        <v>0.004492747753106098</v>
       </c>
       <c r="H6">
-        <v>0.0003628299008894941</v>
+        <v>0.0003628298888618058</v>
       </c>
       <c r="I6">
-        <v>2.872742458463006</v>
+        <v>2.872742322271015</v>
       </c>
       <c r="J6">
-        <v>12.75296391234616</v>
+        <v>12.75296396272713</v>
       </c>
       <c r="K6">
-        <v>0.2263498348397162</v>
+        <v>0.226349825837977</v>
       </c>
       <c r="L6">
-        <v>0.1654277544389824</v>
+        <v>0.1654280121108421</v>
       </c>
       <c r="M6">
-        <v>0.2244778135778513</v>
+        <v>0.2244777996830052</v>
       </c>
       <c r="N6">
-        <v>2.977331936347189E-06</v>
+        <v>2.977331849229263E-06</v>
       </c>
       <c r="O6">
-        <v>0.02853249613867061</v>
+        <v>0.02853249556358139</v>
       </c>
       <c r="P6">
-        <v>0.03775583440992222</v>
+        <v>0.03775583323890317</v>
       </c>
       <c r="Q6">
-        <v>0.03834201745952429</v>
+        <v>0.03834201624623575</v>
       </c>
       <c r="R6">
-        <v>0.08411454964554534</v>
+        <v>0.08411454813373609</v>
       </c>
       <c r="S6">
-        <v>6.430613386585415E-08</v>
+        <v>6.40711030089061E-08</v>
       </c>
       <c r="T6">
-        <v>4.400834506904479E-05</v>
+        <v>4.393041994601235E-05</v>
       </c>
       <c r="U6">
-        <v>0.5987484431992465</v>
+        <v>0.5987484205765814</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7">
-        <v>0.02038969491531882</v>
+        <v>0.01458910476100917</v>
       </c>
       <c r="B7">
-        <v>15.88768246559596</v>
+        <v>4.918832826189973</v>
       </c>
       <c r="C7">
-        <v>2.194747230696016</v>
+        <v>0.6913127099335721</v>
       </c>
       <c r="D7">
-        <v>2.874306123269693</v>
+        <v>0.8783057314698245</v>
       </c>
       <c r="E7">
-        <v>21.82191718228646</v>
+        <v>34.5200543261765</v>
       </c>
       <c r="F7">
-        <v>2.133113000978392</v>
+        <v>1.276408583701341</v>
       </c>
       <c r="G7">
-        <v>0.004365778694358545</v>
+        <v>0.004500532755018524</v>
       </c>
       <c r="H7">
-        <v>0.006350093021864371</v>
+        <v>0.00171087490574075</v>
       </c>
       <c r="I7">
-        <v>0.88313839999315</v>
+        <v>0.4414922105229355</v>
       </c>
       <c r="J7">
-        <v>45.9360213186312</v>
+        <v>11.23226779067332</v>
       </c>
       <c r="K7">
-        <v>1.141978922075188</v>
+        <v>1.408311955737131</v>
       </c>
       <c r="L7">
-        <v>0.3439113020457906</v>
+        <v>1.018001041004773</v>
       </c>
       <c r="M7">
-        <v>0.1170163790297735</v>
+        <v>0.05528372485235687</v>
       </c>
       <c r="N7">
-        <v>5.62479125031988E-06</v>
+        <v>5.734846381415288E-06</v>
       </c>
       <c r="O7">
-        <v>0.0078730763612704</v>
+        <v>0.005031809827147599</v>
       </c>
       <c r="P7">
-        <v>0.01408121874747294</v>
+        <v>0.01022182114377772</v>
       </c>
       <c r="Q7">
-        <v>0.01473509015735187</v>
+        <v>0.01046801513341624</v>
       </c>
       <c r="R7">
-        <v>0.1284523149685303</v>
+        <v>0.09016740326463238</v>
       </c>
       <c r="S7">
-        <v>5.877004782918845E-08</v>
+        <v>3.122768332657191E-08</v>
       </c>
       <c r="T7">
-        <v>3.34146945403202E-05</v>
+        <v>1.197739313374288E-05</v>
       </c>
       <c r="U7">
-        <v>0.6105207673012039</v>
+        <v>0.2510915093428578</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8">
-        <v>-0.06467968742789991</v>
+        <v>-0.06467968655717352</v>
       </c>
       <c r="B8">
-        <v>-14.45532617505729</v>
+        <v>-14.37138819009135</v>
       </c>
       <c r="C8">
-        <v>-0.5998096237748555</v>
+        <v>-0.5998096299322714</v>
       </c>
       <c r="D8">
-        <v>-0.7907094676121305</v>
+        <v>-0.7907094739601166</v>
       </c>
       <c r="E8">
-        <v>-16.21590412729874</v>
+        <v>-16.21590434358562</v>
       </c>
       <c r="F8">
-        <v>-3.035801246675014</v>
+        <v>-3.035801176463265</v>
       </c>
       <c r="G8">
-        <v>-0.00449274780944814</v>
+        <v>-0.004492747753106098</v>
       </c>
       <c r="H8">
-        <v>-0.0003628299008894941</v>
+        <v>-0.0003628298888618058</v>
       </c>
       <c r="I8">
-        <v>-2.872742458463006</v>
+        <v>-2.872742322271015</v>
       </c>
       <c r="J8">
-        <v>-12.75296391234616</v>
+        <v>-12.75296396272713</v>
       </c>
       <c r="K8">
-        <v>-0.2263498348397162</v>
+        <v>-0.226349825837977</v>
       </c>
       <c r="L8">
-        <v>-0.1654277544389824</v>
+        <v>-0.1654280121108421</v>
       </c>
       <c r="M8">
-        <v>-0.2244778135778513</v>
+        <v>-0.2244777996830052</v>
       </c>
       <c r="N8">
-        <v>-2.977331936347189E-06</v>
+        <v>-2.977331849229263E-06</v>
       </c>
       <c r="O8">
-        <v>-0.02853249613867061</v>
+        <v>-0.02853249556358139</v>
       </c>
       <c r="P8">
-        <v>-0.03775583440992222</v>
+        <v>-0.03775583323890317</v>
       </c>
       <c r="Q8">
-        <v>-0.03834201745952429</v>
+        <v>-0.03834201624623575</v>
       </c>
       <c r="R8">
-        <v>-0.08411454964554534</v>
+        <v>-0.08411454813373609</v>
       </c>
       <c r="S8">
-        <v>-6.430613386585415E-08</v>
+        <v>-6.40711030089061E-08</v>
       </c>
       <c r="T8">
-        <v>-4.400834506904479E-05</v>
+        <v>-4.393041994601235E-05</v>
       </c>
       <c r="U8">
-        <v>-0.5987484431992465</v>
+        <v>-0.5987484205765814</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9">
-        <v>0.009157225111571261</v>
+        <v>0.004920052795027145</v>
       </c>
       <c r="B9">
-        <v>7.661605905382403</v>
+        <v>1.469122008795146</v>
       </c>
       <c r="C9">
-        <v>1.20127956687722</v>
+        <v>0.3118272586138922</v>
       </c>
       <c r="D9">
-        <v>1.574639017326096</v>
+        <v>0.3930462912178805</v>
       </c>
       <c r="E9">
-        <v>10.28818083293414</v>
+        <v>15.84664365554599</v>
       </c>
       <c r="F9">
-        <v>0.8763746775835635</v>
+        <v>0.3811532631822493</v>
       </c>
       <c r="G9">
-        <v>0.001765387900666878</v>
+        <v>0.00131993745340433</v>
       </c>
       <c r="H9">
-        <v>0.003023238994929792</v>
+        <v>0.0003030936750849691</v>
       </c>
       <c r="I9">
-        <v>0.4091500702041031</v>
+        <v>0.1365887742626036</v>
       </c>
       <c r="J9">
-        <v>24.93568222370092</v>
+        <v>4.161611372842219</v>
       </c>
       <c r="K9">
-        <v>0.3347251556936377</v>
+        <v>0.4058799825691616</v>
       </c>
       <c r="L9">
-        <v>0.1705103600890131</v>
+        <v>0.2956213198035792</v>
       </c>
       <c r="M9">
-        <v>0.05544199720058425</v>
+        <v>0.01874376973173062</v>
       </c>
       <c r="N9">
-        <v>2.427686751803016E-06</v>
+        <v>1.617064678489481E-06</v>
       </c>
       <c r="O9">
-        <v>0.003574153810061126</v>
+        <v>0.001700580563856562</v>
       </c>
       <c r="P9">
-        <v>0.006078917268873302</v>
+        <v>0.003108226787398668</v>
       </c>
       <c r="Q9">
-        <v>0.006398540951916091</v>
+        <v>0.003186244258398607</v>
       </c>
       <c r="R9">
-        <v>0.06462972178055049</v>
+        <v>0.02633717963697675</v>
       </c>
       <c r="S9">
-        <v>2.803590501997712E-08</v>
+        <v>9.512325997745411E-09</v>
       </c>
       <c r="T9">
-        <v>1.655723273729316E-05</v>
+        <v>3.899648635677326E-06</v>
       </c>
       <c r="U9">
-        <v>0.2894687079274166</v>
+        <v>0.07740151595425937</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10">
-        <v>-0.001398397578324113</v>
+        <v>-0.001398397649790301</v>
       </c>
       <c r="B10">
-        <v>-1.664456847726596</v>
+        <v>-0.7567638897651974</v>
       </c>
       <c r="C10">
-        <v>-0.0183391553523735</v>
+        <v>-0.01833915641780064</v>
       </c>
       <c r="D10">
-        <v>-0.02434508700989478</v>
+        <v>-0.0243450884727981</v>
       </c>
       <c r="E10">
-        <v>-0.1475127952729112</v>
+        <v>-0.1475129260844719</v>
       </c>
       <c r="F10">
-        <v>-0.0269172795392619</v>
+        <v>-0.02691728422212455</v>
       </c>
       <c r="G10">
-        <v>-9.761806822244315E-06</v>
+        <v>-9.76181230105246E-06</v>
       </c>
       <c r="H10">
-        <v>-0.0002333030147358924</v>
+        <v>-0.0002333030154358822</v>
       </c>
       <c r="I10">
-        <v>-0.00648852047260864</v>
+        <v>-0.006488527882317461</v>
       </c>
       <c r="J10">
-        <v>-0.4347469521097224</v>
+        <v>-0.4347469726157469</v>
       </c>
       <c r="K10">
-        <v>-0.001827152489059808</v>
+        <v>-0.001827153098503169</v>
       </c>
       <c r="L10">
-        <v>-0.0007984171184080833</v>
+        <v>-0.0007984172551322092</v>
       </c>
       <c r="M10">
-        <v>-0.002098156439395733</v>
+        <v>-0.002098157273755057</v>
       </c>
       <c r="N10">
-        <v>-1.167375885957236E-05</v>
+        <v>-1.167375886680977E-05</v>
       </c>
       <c r="O10">
-        <v>-0.0004388303998260935</v>
+        <v>-0.0004388304422689772</v>
       </c>
       <c r="P10">
-        <v>-0.003158334709470343</v>
+        <v>-0.003158334789964745</v>
       </c>
       <c r="Q10">
-        <v>-0.003169012312515226</v>
+        <v>-0.003169012395615686</v>
       </c>
       <c r="R10">
-        <v>-0.002121980057216368</v>
+        <v>-0.002121980153249643</v>
       </c>
       <c r="S10">
-        <v>-5.396405685860026E-09</v>
+        <v>-2.854796095339771E-09</v>
       </c>
       <c r="T10">
-        <v>-1.955570223080516E-06</v>
+        <v>-1.113231043517684E-06</v>
       </c>
       <c r="U10">
-        <v>-0.00969664384856146</v>
+        <v>-0.009696645340670104</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11">
-        <v>0.002954329391516229</v>
+        <v>0.002954330228152711</v>
       </c>
       <c r="B11">
-        <v>1.515490602485785</v>
+        <v>0.9296644556022727</v>
       </c>
       <c r="C11">
-        <v>0.05026757153070352</v>
+        <v>0.05026758559857547</v>
       </c>
       <c r="D11">
-        <v>0.06596205456579371</v>
+        <v>0.06596207428779627</v>
       </c>
       <c r="E11">
-        <v>4.04874886652157</v>
+        <v>4.048750529927658</v>
       </c>
       <c r="F11">
-        <v>0.2642030407715837</v>
+        <v>0.2642031013714461</v>
       </c>
       <c r="G11">
-        <v>0.0005412410983135903</v>
+        <v>0.0005412411816685352</v>
       </c>
       <c r="H11">
-        <v>0.0005718955761227831</v>
+        <v>0.0005718955873844527</v>
       </c>
       <c r="I11">
-        <v>0.05631636486512228</v>
+        <v>0.05631647957951343</v>
       </c>
       <c r="J11">
-        <v>1.143237988642474</v>
+        <v>1.143238349375713</v>
       </c>
       <c r="K11">
-        <v>0.09171310215517449</v>
+        <v>0.09171312785818601</v>
       </c>
       <c r="L11">
-        <v>0.4061157048377768</v>
+        <v>0.4061157080732998</v>
       </c>
       <c r="M11">
-        <v>0.01086213095073881</v>
+        <v>0.01086214357257259</v>
       </c>
       <c r="N11">
-        <v>8.925567884795933E-07</v>
+        <v>8.925568976722872E-07</v>
       </c>
       <c r="O11">
-        <v>0.001149453399117339</v>
+        <v>0.001149453918875525</v>
       </c>
       <c r="P11">
-        <v>0.002928290048509126</v>
+        <v>0.002928291082346396</v>
       </c>
       <c r="Q11">
-        <v>0.003045220115092116</v>
+        <v>0.003045221186756425</v>
       </c>
       <c r="R11">
-        <v>0.01506821449630805</v>
+        <v>0.01506821619098456</v>
       </c>
       <c r="S11">
-        <v>9.316431896632944E-09</v>
+        <v>7.67607435191934E-09</v>
       </c>
       <c r="T11">
-        <v>2.614018444915714E-06</v>
+        <v>2.070234384248597E-06</v>
       </c>
       <c r="U11">
-        <v>0.0888179670176982</v>
+        <v>0.08881798788535666</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12">
-        <v>0.006306594650693631</v>
+        <v>0.006306594984585275</v>
       </c>
       <c r="B12">
-        <v>2.405733261763123</v>
+        <v>2.38015711073273</v>
       </c>
       <c r="C12">
-        <v>0.05477910462156944</v>
+        <v>0.05477911046621364</v>
       </c>
       <c r="D12">
-        <v>0.07305763790122694</v>
+        <v>0.07305764603769832</v>
       </c>
       <c r="E12">
-        <v>5.04000187073401</v>
+        <v>5.040002556193191</v>
       </c>
       <c r="F12">
-        <v>1.712789148605322</v>
+        <v>1.712789172696012</v>
       </c>
       <c r="G12">
-        <v>0.000391842096559222</v>
+        <v>0.0003918421295506679</v>
       </c>
       <c r="H12">
-        <v>3.966914772924917E-05</v>
+        <v>3.966915212253189E-05</v>
       </c>
       <c r="I12">
-        <v>0.08680588440480634</v>
+        <v>0.08680592892389903</v>
       </c>
       <c r="J12">
-        <v>1.158757258276208</v>
+        <v>1.158757400962148</v>
       </c>
       <c r="K12">
-        <v>0.04720857466599523</v>
+        <v>0.04720858450405262</v>
       </c>
       <c r="L12">
-        <v>0.0186027476319627</v>
+        <v>0.01860273655276655</v>
       </c>
       <c r="M12">
-        <v>0.01829508341012275</v>
+        <v>0.01829508837712853</v>
       </c>
       <c r="N12">
-        <v>2.736037382035725E-07</v>
+        <v>2.736037827238668E-07</v>
       </c>
       <c r="O12">
-        <v>0.002394198057262337</v>
+        <v>0.002394198265479967</v>
       </c>
       <c r="P12">
-        <v>0.00493610865037758</v>
+        <v>0.004936109065927889</v>
       </c>
       <c r="Q12">
-        <v>0.005285701597541196</v>
+        <v>0.005285702027961778</v>
       </c>
       <c r="R12">
-        <v>0.01750248275105061</v>
+        <v>0.01750248341488878</v>
       </c>
       <c r="S12">
-        <v>9.288392702489792E-09</v>
+        <v>9.216777588107488E-09</v>
       </c>
       <c r="T12">
-        <v>4.332772995435653E-06</v>
+        <v>4.309032809863641E-06</v>
       </c>
       <c r="U12">
-        <v>0.6779802991949381</v>
+        <v>0.6779803074732977</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13">
-        <v>0.02514339526486215</v>
+        <v>0.02514339373333194</v>
       </c>
       <c r="B13">
-        <v>8.399961298914381</v>
+        <v>8.244466961568794</v>
       </c>
       <c r="C13">
-        <v>0.2866124413259359</v>
+        <v>0.2866124196887435</v>
       </c>
       <c r="D13">
-        <v>0.3723967941266588</v>
+        <v>0.3723967642275128</v>
       </c>
       <c r="E13">
-        <v>25.6827404754587</v>
+        <v>25.68273757593157</v>
       </c>
       <c r="F13">
-        <v>4.031258736860775</v>
+        <v>4.031258630627724</v>
       </c>
       <c r="G13">
-        <v>0.002288972568284637</v>
+        <v>0.00228897244551023</v>
       </c>
       <c r="H13">
-        <v>0.0003802853124773709</v>
+        <v>0.0003802852982280292</v>
       </c>
       <c r="I13">
-        <v>0.3771829059794592</v>
+        <v>0.3771827420775103</v>
       </c>
       <c r="J13">
-        <v>7.31689571798266</v>
+        <v>7.316895278517839</v>
       </c>
       <c r="K13">
-        <v>0.3946876994477837</v>
+        <v>0.3946876833805683</v>
       </c>
       <c r="L13">
-        <v>0.1061868305915974</v>
+        <v>0.106186891242773</v>
       </c>
       <c r="M13">
-        <v>0.1953829610508839</v>
+        <v>0.1953829435788183</v>
       </c>
       <c r="N13">
-        <v>2.270205895481432E-06</v>
+        <v>2.270205728238268E-06</v>
       </c>
       <c r="O13">
-        <v>0.01225116965643993</v>
+        <v>0.01225116870006005</v>
       </c>
       <c r="P13">
-        <v>0.01846342199497768</v>
+        <v>0.01846342014848141</v>
       </c>
       <c r="Q13">
-        <v>0.0199437859836298</v>
+        <v>0.01994378407933742</v>
       </c>
       <c r="R13">
-        <v>0.1342957583382217</v>
+        <v>0.1342957562319668</v>
       </c>
       <c r="S13">
-        <v>3.443804349865627E-08</v>
+        <v>3.400264730796096E-08</v>
       </c>
       <c r="T13">
-        <v>1.873251592571872E-05</v>
+        <v>1.858819378805762E-05</v>
       </c>
       <c r="U13">
-        <v>1.440299990693779</v>
+        <v>1.440299956855278</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14">
-        <v>0.0003643781118400019</v>
+        <v>0.0005067526630115968</v>
       </c>
       <c r="B14">
-        <v>0.2221721220878747</v>
+        <v>0.209072495910291</v>
       </c>
       <c r="C14">
-        <v>0.009296349481364284</v>
+        <v>0.01296366853701486</v>
       </c>
       <c r="D14">
-        <v>0.01191902662618417</v>
+        <v>0.01690434903953495</v>
       </c>
       <c r="E14">
-        <v>0.3026441382918265</v>
+        <v>0.5827242457933571</v>
       </c>
       <c r="F14">
-        <v>0.05480765968899677</v>
+        <v>0.0550480139705858</v>
       </c>
       <c r="G14">
-        <v>9.047393720261818E-05</v>
+        <v>0.000173750446756612</v>
       </c>
       <c r="H14">
-        <v>7.627894201550689E-06</v>
+        <v>1.504736242441767E-05</v>
       </c>
       <c r="I14">
-        <v>0.01444844534370092</v>
+        <v>0.01732092058056139</v>
       </c>
       <c r="J14">
-        <v>0.1858149607232804</v>
+        <v>0.3091296936910886</v>
       </c>
       <c r="K14">
-        <v>0.05022010110315003</v>
+        <v>0.06332675927931133</v>
       </c>
       <c r="L14">
-        <v>0.004167897683455492</v>
+        <v>0.04609386080705809</v>
       </c>
       <c r="M14">
-        <v>0.00123987458850229</v>
+        <v>0.001418517428159682</v>
       </c>
       <c r="N14">
-        <v>9.941431743748172E-08</v>
+        <v>2.385586282672554E-07</v>
       </c>
       <c r="O14">
-        <v>0.0001348675169104861</v>
+        <v>0.0001724650390894035</v>
       </c>
       <c r="P14">
-        <v>0.0003024140728077344</v>
+        <v>0.0004212607329935954</v>
       </c>
       <c r="Q14">
-        <v>0.0003108612536944435</v>
+        <v>0.000430768966364615</v>
       </c>
       <c r="R14">
-        <v>0.00119646265234164</v>
+        <v>0.003780097054392465</v>
       </c>
       <c r="S14">
-        <v>8.482716221736254E-10</v>
+        <v>1.291043642952362E-09</v>
       </c>
       <c r="T14">
-        <v>3.846420580241221E-07</v>
+        <v>4.398193849684704E-07</v>
       </c>
       <c r="U14">
-        <v>0.009493079813729318</v>
+        <v>0.01027810192649818</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15">
-        <v>0.0001116860948433568</v>
+        <v>0.0001116859593077519</v>
       </c>
       <c r="B15">
-        <v>0.1284863453376611</v>
+        <v>0.03502596251550603</v>
       </c>
       <c r="C15">
-        <v>0.001836060845992218</v>
+        <v>0.001836059174135698</v>
       </c>
       <c r="D15">
-        <v>0.002400947807867175</v>
+        <v>0.002400945474813028</v>
       </c>
       <c r="E15">
-        <v>0.1765880756551705</v>
+        <v>0.1765878390601399</v>
       </c>
       <c r="F15">
-        <v>0.009995815845436809</v>
+        <v>0.009995806452857036</v>
       </c>
       <c r="G15">
-        <v>1.081273914024316E-05</v>
+        <v>1.081272871080623E-05</v>
       </c>
       <c r="H15">
-        <v>1.173016349247877E-06</v>
+        <v>1.173015089412071E-06</v>
       </c>
       <c r="I15">
-        <v>0.00159169622683153</v>
+        <v>0.001591682065869453</v>
       </c>
       <c r="J15">
-        <v>0.04413418489321957</v>
+        <v>0.04413415025430793</v>
       </c>
       <c r="K15">
-        <v>0.002933684866049508</v>
+        <v>0.002933683641988844</v>
       </c>
       <c r="L15">
-        <v>0.02273867635388798</v>
+        <v>0.02273867491595609</v>
       </c>
       <c r="M15">
-        <v>0.0002052876789541663</v>
+        <v>0.0002052861477473816</v>
       </c>
       <c r="N15">
-        <v>3.35510872385811E-08</v>
+        <v>3.355107243773479E-08</v>
       </c>
       <c r="O15">
-        <v>4.868159393211219E-05</v>
+        <v>4.868150964177029E-05</v>
       </c>
       <c r="P15">
-        <v>0.0001277725538797984</v>
+        <v>0.0001277723904369537</v>
       </c>
       <c r="Q15">
-        <v>0.0001323719612094637</v>
+        <v>0.0001323717927203802</v>
       </c>
       <c r="R15">
-        <v>0.0002357345517333425</v>
+        <v>0.0002357343699951532</v>
       </c>
       <c r="S15">
-        <v>6.129524749472023E-10</v>
+        <v>3.512561889709598E-10</v>
       </c>
       <c r="T15">
-        <v>1.6586298536921E-07</v>
+        <v>7.913142760437322E-08</v>
       </c>
       <c r="U15">
-        <v>0.003053063249192321</v>
+        <v>0.003053060268478054</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16">
-        <v>0.008308023781373956</v>
+        <v>0.008308026032321962</v>
       </c>
       <c r="B16">
-        <v>3.093200718639223</v>
+        <v>2.99499554185447</v>
       </c>
       <c r="C16">
-        <v>0.08132469314862549</v>
+        <v>0.08132473173312714</v>
       </c>
       <c r="D16">
-        <v>0.1081262640346603</v>
+        <v>0.1081263178417679</v>
       </c>
       <c r="E16">
-        <v>6.126185248702732</v>
+        <v>6.126189805142694</v>
       </c>
       <c r="F16">
-        <v>1.8441894732138</v>
+        <v>1.844189636148625</v>
       </c>
       <c r="G16">
-        <v>0.0007933753277114688</v>
+        <v>0.0007933755493453013</v>
       </c>
       <c r="H16">
-        <v>0.0001081595696689586</v>
+        <v>0.0001081595989177015</v>
       </c>
       <c r="I16">
-        <v>0.1244989788820996</v>
+        <v>0.1244992793928068</v>
       </c>
       <c r="J16">
-        <v>1.881570128181702</v>
+        <v>1.881571078574233</v>
       </c>
       <c r="K16">
-        <v>0.2459796151118322</v>
+        <v>0.2459796808656249</v>
       </c>
       <c r="L16">
-        <v>0.08189162582893442</v>
+        <v>0.08189164710159881</v>
       </c>
       <c r="M16">
-        <v>0.01995811999627388</v>
+        <v>0.01995815307436707</v>
       </c>
       <c r="N16">
-        <v>5.533021200932209E-07</v>
+        <v>5.533024180630062E-07</v>
       </c>
       <c r="O16">
-        <v>0.003524270664925526</v>
+        <v>0.003524272069937896</v>
       </c>
       <c r="P16">
-        <v>0.006931815938375015</v>
+        <v>0.006931818745698967</v>
       </c>
       <c r="Q16">
-        <v>0.007618641571257396</v>
+        <v>0.007618644479114779</v>
       </c>
       <c r="R16">
-        <v>0.04827421824290701</v>
+        <v>0.0482742226795449</v>
       </c>
       <c r="S16">
-        <v>1.280348098667665E-08</v>
+        <v>1.252850026284361E-08</v>
       </c>
       <c r="T16">
-        <v>6.042889030818631E-06</v>
+        <v>5.951745842330678E-06</v>
       </c>
       <c r="U16">
-        <v>0.6974983182310545</v>
+        <v>0.6974983740162694</v>
       </c>
     </row>
     <row r="17" spans="1:21">
       <c r="A17">
-        <v>-0.0002716546420837818</v>
+        <v>-0.0002716547544828525</v>
       </c>
       <c r="B17">
-        <v>-2.373839736559359</v>
+        <v>-2.372984789373008</v>
       </c>
       <c r="C17">
-        <v>-0.1201199389479893</v>
+        <v>-0.1201199403142206</v>
       </c>
       <c r="D17">
-        <v>-0.1599610761090779</v>
+        <v>-0.1599610780196073</v>
       </c>
       <c r="E17">
-        <v>-1.265781194169008</v>
+        <v>-1.265781390303511</v>
       </c>
       <c r="F17">
-        <v>-0.007903464419954941</v>
+        <v>-0.007903472346808096</v>
       </c>
       <c r="G17">
-        <v>-5.236324556791583E-06</v>
+        <v>-5.236333320861513E-06</v>
       </c>
       <c r="H17">
-        <v>-2.145683914477357E-05</v>
+        <v>-2.145684017941346E-05</v>
       </c>
       <c r="I17">
-        <v>-0.02399119022272976</v>
+        <v>-0.02399120230319333</v>
       </c>
       <c r="J17">
-        <v>-2.349946984803219</v>
+        <v>-2.349947012932398</v>
       </c>
       <c r="K17">
-        <v>-0.001044696331679713</v>
+        <v>-0.001044697373016302</v>
       </c>
       <c r="L17">
-        <v>-0.0005566572793466944</v>
+        <v>-0.0005566571329566905</v>
       </c>
       <c r="M17">
-        <v>-0.001265723189307506</v>
+        <v>-0.001265724478160119</v>
       </c>
       <c r="N17">
-        <v>-1.017244141792448E-06</v>
+        <v>-1.017244154362191E-06</v>
       </c>
       <c r="O17">
-        <v>-9.178312963670392E-05</v>
+        <v>-9.178320067458853E-05</v>
       </c>
       <c r="P17">
-        <v>-0.0006027119753270859</v>
+        <v>-0.0006027121134407656</v>
       </c>
       <c r="Q17">
-        <v>-0.0006068256952674337</v>
+        <v>-0.000606825837616933</v>
       </c>
       <c r="R17">
-        <v>-0.003723410345889685</v>
+        <v>-0.00372341049871036</v>
       </c>
       <c r="S17">
-        <v>-6.905675081024608E-09</v>
+        <v>-6.903281213747662E-09</v>
       </c>
       <c r="T17">
-        <v>-2.885749900426476E-06</v>
+        <v>-2.884956519044324E-06</v>
       </c>
       <c r="U17">
-        <v>-0.00298372465004401</v>
+        <v>-0.002983727160488733</v>
       </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18">
-        <v>0.001472941843068299</v>
+        <v>0.001472941872926904</v>
       </c>
       <c r="B18">
-        <v>0.5774649877287763</v>
+        <v>0.4466067986939458</v>
       </c>
       <c r="C18">
-        <v>0.06155749361075959</v>
+        <v>0.06155749408253352</v>
       </c>
       <c r="D18">
-        <v>0.08070113030483993</v>
+        <v>0.08070113097661326</v>
       </c>
       <c r="E18">
-        <v>4.132010231415849</v>
+        <v>4.132010292334727</v>
       </c>
       <c r="F18">
-        <v>0.1258350317718908</v>
+        <v>0.1258350342906459</v>
       </c>
       <c r="G18">
-        <v>0.000977663607814971</v>
+        <v>0.0009776636111920841</v>
       </c>
       <c r="H18">
-        <v>8.922302522153182E-05</v>
+        <v>8.922302560865396E-05</v>
       </c>
       <c r="I18">
-        <v>0.07847872620750111</v>
+        <v>0.07847873153529604</v>
       </c>
       <c r="J18">
-        <v>1.160180109081381</v>
+        <v>1.160180120683153</v>
       </c>
       <c r="K18">
-        <v>0.1157339465808215</v>
+        <v>0.1157339475613744</v>
       </c>
       <c r="L18">
-        <v>0.03126211681103819</v>
+        <v>0.03126211638407748</v>
       </c>
       <c r="M18">
-        <v>0.01528680198581913</v>
+        <v>0.01528680254401629</v>
       </c>
       <c r="N18">
-        <v>2.443635997222753E-07</v>
+        <v>2.443636045471282E-07</v>
       </c>
       <c r="O18">
-        <v>0.0007059247677326669</v>
+        <v>0.0007059247891356513</v>
       </c>
       <c r="P18">
-        <v>0.001177074586232225</v>
+        <v>0.001177074629589663</v>
       </c>
       <c r="Q18">
-        <v>0.001227075437255501</v>
+        <v>0.001227075482123758</v>
       </c>
       <c r="R18">
-        <v>0.004837597777463606</v>
+        <v>0.004837597847137044</v>
       </c>
       <c r="S18">
-        <v>3.119058388751423E-09</v>
+        <v>2.752645470098878E-09</v>
       </c>
       <c r="T18">
-        <v>1.517627214241258E-06</v>
+        <v>1.396138037841249E-06</v>
       </c>
       <c r="U18">
-        <v>0.03991209902565937</v>
+        <v>0.03991209987963913</v>
       </c>
     </row>
     <row r="19" spans="1:21">
       <c r="A19">
-        <v>0.0001368194050296388</v>
+        <v>0.0001368194077937026</v>
       </c>
       <c r="B19">
-        <v>0.02790809754988375</v>
+        <v>0.02336578425679235</v>
       </c>
       <c r="C19">
-        <v>0.0009668459468262328</v>
+        <v>0.0009668459745182923</v>
       </c>
       <c r="D19">
-        <v>0.001040972627569172</v>
+        <v>0.001040972666931465</v>
       </c>
       <c r="E19">
-        <v>0.05639194631342376</v>
+        <v>0.05639195067846991</v>
       </c>
       <c r="F19">
-        <v>0.01144523360120813</v>
+        <v>0.01144523379250067</v>
       </c>
       <c r="G19">
-        <v>9.168122275827267E-06</v>
+        <v>9.168122480212097E-06</v>
       </c>
       <c r="H19">
-        <v>4.798860277048567E-05</v>
+        <v>4.798860279610473E-05</v>
       </c>
       <c r="I19">
-        <v>0.001003582302237275</v>
+        <v>0.001003582580325428</v>
       </c>
       <c r="J19">
-        <v>0.01962572030877562</v>
+        <v>0.01962572093199583</v>
       </c>
       <c r="K19">
-        <v>0.001637837143294385</v>
+        <v>0.00163783716792114</v>
       </c>
       <c r="L19">
-        <v>0.01027492671343662</v>
+        <v>0.01027492678701354</v>
       </c>
       <c r="M19">
-        <v>0.0001650910541295891</v>
+        <v>0.0001650910866922283</v>
       </c>
       <c r="N19">
-        <v>7.182349321021425E-08</v>
+        <v>7.182349352281389E-08</v>
       </c>
       <c r="O19">
-        <v>3.748100180819421E-05</v>
+        <v>3.748100354017047E-05</v>
       </c>
       <c r="P19">
-        <v>0.000420584232705547</v>
+        <v>0.0004205842361289492</v>
       </c>
       <c r="Q19">
-        <v>0.0006459375820386859</v>
+        <v>0.0006459375855579697</v>
       </c>
       <c r="R19">
-        <v>0.004767416850249974</v>
+        <v>0.004767416853936729</v>
       </c>
       <c r="S19">
-        <v>2.891879673394147E-10</v>
+        <v>2.764691450088417E-10</v>
       </c>
       <c r="T19">
-        <v>6.828579298700185E-08</v>
+        <v>6.407037701432373E-08</v>
       </c>
       <c r="U19">
-        <v>0.004276333307865379</v>
+        <v>0.004276333368970334</v>
       </c>
     </row>
     <row r="20" spans="1:21">
       <c r="A20">
-        <v>0.002840721741041421</v>
+        <v>-0.0008081264830573909</v>
       </c>
       <c r="B20">
-        <v>0.7865498101258326</v>
+        <v>-0.2295373654280823</v>
       </c>
       <c r="C20">
-        <v>0.04502625715362947</v>
+        <v>-0.0515953416505202</v>
       </c>
       <c r="D20">
-        <v>0.05861454462476434</v>
+        <v>-0.06665592834793431</v>
       </c>
       <c r="E20">
-        <v>3.677716401673161</v>
+        <v>-1.410460071361025</v>
       </c>
       <c r="F20">
-        <v>0.1970142954299811</v>
+        <v>-0.05831111780177639</v>
       </c>
       <c r="G20">
-        <v>0.0002860356517643253</v>
+        <v>-0.0001822553855451866</v>
       </c>
       <c r="H20">
-        <v>3.820379849416218E-05</v>
+        <v>-4.752512916456324E-05</v>
       </c>
       <c r="I20">
-        <v>0.03842833683389504</v>
+        <v>-0.01869715403633954</v>
       </c>
       <c r="J20">
-        <v>0.7911679012801113</v>
+        <v>-0.9231011958592998</v>
       </c>
       <c r="K20">
-        <v>0.08027073757458923</v>
+        <v>-0.1039225953956226</v>
       </c>
       <c r="L20">
-        <v>0.01617315367762685</v>
+        <v>-0.01063922802636578</v>
       </c>
       <c r="M20">
-        <v>0.008298706319724994</v>
+        <v>-0.00485464753349656</v>
       </c>
       <c r="N20">
-        <v>3.009179196280748E-07</v>
+        <v>-1.438795708347898E-07</v>
       </c>
       <c r="O20">
-        <v>0.001561111738973549</v>
+        <v>-0.0003364307432762327</v>
       </c>
       <c r="P20">
-        <v>0.002422870110832379</v>
+        <v>-0.0004101379604272473</v>
       </c>
       <c r="Q20">
-        <v>0.002485676998380966</v>
+        <v>-0.0004252006780450761</v>
       </c>
       <c r="R20">
-        <v>0.005126486680750639</v>
+        <v>-0.002658582965888077</v>
       </c>
       <c r="S20">
-        <v>3.540145139419744E-09</v>
+        <v>-1.14432725138286E-09</v>
       </c>
       <c r="T20">
-        <v>2.033461140154632E-06</v>
+        <v>-7.042086974777756E-07</v>
       </c>
       <c r="U20">
-        <v>0.05049445730272705</v>
+        <v>-0.01431641535423023</v>
       </c>
     </row>
     <row r="21" spans="1:21">
       <c r="A21">
-        <v>0.0003053525269298775</v>
+        <v>-0.001668242691290568</v>
       </c>
       <c r="B21">
-        <v>0.1899538957870924</v>
+        <v>-0.6162118472448983</v>
       </c>
       <c r="C21">
-        <v>0.00466367956445735</v>
+        <v>-0.1278517751709737</v>
       </c>
       <c r="D21">
-        <v>0.008280256864338066</v>
+        <v>-0.1657905744050177</v>
       </c>
       <c r="E21">
-        <v>3.590255313400422</v>
+        <v>-2.682004220814991</v>
       </c>
       <c r="F21">
-        <v>0.05929106171555808</v>
+        <v>-0.16753661416309</v>
       </c>
       <c r="G21">
-        <v>1.336079659134336E-05</v>
+        <v>-0.0003625034887321435</v>
       </c>
       <c r="H21">
-        <v>5.282552523333986E-06</v>
+        <v>-0.0001240375863216134</v>
       </c>
       <c r="I21">
-        <v>0.009731776675048227</v>
+        <v>-0.03917146126516644</v>
       </c>
       <c r="J21">
-        <v>0.1466184951732519</v>
+        <v>-2.364617655056103</v>
       </c>
       <c r="K21">
-        <v>0.00303142950846957</v>
+        <v>-0.2019829563616294</v>
       </c>
       <c r="L21">
-        <v>0.007092274067712158</v>
+        <v>-0.01813379632333814</v>
       </c>
       <c r="M21">
-        <v>0.002112406811640503</v>
+        <v>-0.007400243845184123</v>
       </c>
       <c r="N21">
-        <v>8.610568481109093E-08</v>
+        <v>-3.071098682776939E-07</v>
       </c>
       <c r="O21">
-        <v>0.0001495603508441838</v>
+        <v>-0.0006888501989372366</v>
       </c>
       <c r="P21">
-        <v>0.0003475468005501164</v>
+        <v>-0.001001551507068022</v>
       </c>
       <c r="Q21">
-        <v>0.0003870232760651443</v>
+        <v>-0.001052346460317087</v>
       </c>
       <c r="R21">
-        <v>0.0003044000575630289</v>
+        <v>-0.005979196382444492</v>
       </c>
       <c r="S21">
-        <v>7.635919622681411E-10</v>
+        <v>-2.755513160494628E-09</v>
       </c>
       <c r="T21">
-        <v>3.370807105590553E-07</v>
+        <v>-1.690064360839101E-06</v>
       </c>
       <c r="U21">
-        <v>0.02561864775004507</v>
+        <v>-0.0462787600890552</v>
       </c>
     </row>
     <row r="22" spans="1:21">
       <c r="A22">
-        <v>0.0003111919961497615</v>
+        <v>0.002840721756832448</v>
       </c>
       <c r="B22">
-        <v>0.06338098458727322</v>
+        <v>0.7639651406918052</v>
       </c>
       <c r="C22">
-        <v>0.001256061425743024</v>
+        <v>0.04502625832020708</v>
       </c>
       <c r="D22">
-        <v>0.001785519627430043</v>
+        <v>0.05861454613429019</v>
       </c>
       <c r="E22">
-        <v>0.2284126538540599</v>
+        <v>3.677716535443144</v>
       </c>
       <c r="F22">
-        <v>0.01751781873063376</v>
+        <v>0.1970142966274018</v>
       </c>
       <c r="G22">
-        <v>7.111302556222774E-06</v>
+        <v>0.0002860356543564423</v>
       </c>
       <c r="H22">
-        <v>1.512078808214423E-06</v>
+        <v>3.820379834171732E-05</v>
       </c>
       <c r="I22">
-        <v>0.00726953046575206</v>
+        <v>0.03842833850031879</v>
       </c>
       <c r="J22">
-        <v>0.02462278264660207</v>
+        <v>0.791167917997269</v>
       </c>
       <c r="K22">
-        <v>0.001004904558531991</v>
+        <v>0.08027073780505294</v>
       </c>
       <c r="L22">
-        <v>0.002203196399511323</v>
+        <v>0.01617315254536853</v>
       </c>
       <c r="M22">
-        <v>0.001078804860038357</v>
+        <v>0.0082987063319336</v>
       </c>
       <c r="N22">
-        <v>1.938158398598048E-08</v>
+        <v>3.009179222689328E-07</v>
       </c>
       <c r="O22">
-        <v>0.0001242060218188756</v>
+        <v>0.001561111753364653</v>
       </c>
       <c r="P22">
-        <v>0.0006545212109419823</v>
+        <v>0.002422870135178896</v>
       </c>
       <c r="Q22">
-        <v>0.0006688046468532213</v>
+        <v>0.002485677023067413</v>
       </c>
       <c r="R22">
-        <v>0.0001315162025420402</v>
+        <v>0.005126486693657509</v>
       </c>
       <c r="S22">
-        <v>3.577216147293989E-10</v>
+        <v>3.476906340160509E-09</v>
       </c>
       <c r="T22">
-        <v>1.675700211187159E-07</v>
+        <v>2.012499619508655E-06</v>
       </c>
       <c r="U22">
-        <v>0.007185428990547761</v>
+        <v>0.05049445762597492</v>
       </c>
     </row>
     <row r="23" spans="1:21">
       <c r="A23">
-        <v>-0.001960372342957913</v>
+        <v>0.000305352483041887</v>
       </c>
       <c r="B23">
-        <v>-1.159673084962837</v>
+        <v>0.1884542818022098</v>
       </c>
       <c r="C23">
-        <v>-0.04537182770801647</v>
+        <v>0.004663678930038658</v>
       </c>
       <c r="D23">
-        <v>-0.06015808110811099</v>
+        <v>0.008280255992673888</v>
       </c>
       <c r="E23">
-        <v>-1.512129414089107</v>
+        <v>3.590255231003151</v>
       </c>
       <c r="F23">
-        <v>-0.110592633387694</v>
+        <v>0.05929105877324206</v>
       </c>
       <c r="G23">
-        <v>-0.000359627552719447</v>
+        <v>1.336079320661228E-05</v>
       </c>
       <c r="H23">
-        <v>-0.002855970011664068</v>
+        <v>5.282552115146862E-06</v>
       </c>
       <c r="I23">
-        <v>-0.02563737972369487</v>
+        <v>0.009731772241595181</v>
       </c>
       <c r="J23">
-        <v>-1.171873347886743</v>
+        <v>0.1466184828165562</v>
       </c>
       <c r="K23">
-        <v>-0.04337626180455813</v>
+        <v>0.003031429125756262</v>
       </c>
       <c r="L23">
-        <v>-0.01734705251319037</v>
+        <v>0.007092274211789916</v>
       </c>
       <c r="M23">
-        <v>-0.004300230413793837</v>
+        <v>0.002112406313800612</v>
       </c>
       <c r="N23">
-        <v>-5.116582500636089E-07</v>
+        <v>8.610568015230132E-08</v>
       </c>
       <c r="O23">
-        <v>-0.001009444994014417</v>
+        <v>0.0001495603241750118</v>
       </c>
       <c r="P23">
-        <v>-0.001151205703648336</v>
+        <v>0.0003475467491939984</v>
       </c>
       <c r="Q23">
-        <v>-0.001187084017987113</v>
+        <v>0.00038702322310806</v>
       </c>
       <c r="R23">
-        <v>-0.003746186746939355</v>
+        <v>0.000304399999210125</v>
       </c>
       <c r="S23">
-        <v>-4.270890991947131E-09</v>
+        <v>7.593929099403566E-10</v>
       </c>
       <c r="T23">
-        <v>-2.073714893426163E-06</v>
+        <v>3.356889226204216E-07</v>
       </c>
       <c r="U23">
-        <v>-0.0249960706493965</v>
+        <v>0.02561864681118486</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24">
+        <v>0.0001987390800603171</v>
+      </c>
+      <c r="B24">
+        <v>0.01638159154303412</v>
+      </c>
+      <c r="C24">
+        <v>0.000237266840415668</v>
+      </c>
+      <c r="D24">
+        <v>0.0003729307725737473</v>
+      </c>
+      <c r="E24">
+        <v>0.1010706147474788</v>
+      </c>
+      <c r="F24">
+        <v>0.004679762679554177</v>
+      </c>
+      <c r="G24">
+        <v>9.647179542826229E-07</v>
+      </c>
+      <c r="H24">
+        <v>3.71246986401485E-07</v>
+      </c>
+      <c r="I24">
+        <v>0.0009929670954769211</v>
+      </c>
+      <c r="J24">
+        <v>0.005452346068179811</v>
+      </c>
+      <c r="K24">
+        <v>0.0001450797001955749</v>
+      </c>
+      <c r="L24">
+        <v>0.0002847325845525324</v>
+      </c>
+      <c r="M24">
+        <v>0.0001673102752599762</v>
+      </c>
+      <c r="N24">
+        <v>7.189256067977686E-09</v>
+      </c>
+      <c r="O24">
+        <v>6.630470494314447E-05</v>
+      </c>
+      <c r="P24">
+        <v>0.0002234007629431802</v>
+      </c>
+      <c r="Q24">
+        <v>0.0002271348988823079</v>
+      </c>
+      <c r="R24">
+        <v>2.011051380757511E-05</v>
+      </c>
+      <c r="S24">
+        <v>1.218366645613701E-10</v>
+      </c>
+      <c r="T24">
+        <v>6.165441952685121E-08</v>
+      </c>
+      <c r="U24">
+        <v>0.002024188263844442</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25">
+        <v>-0.001960372394215831</v>
+      </c>
+      <c r="B25">
+        <v>-0.4456404831513228</v>
+      </c>
+      <c r="C25">
+        <v>-0.04537182840585835</v>
+      </c>
+      <c r="D25">
+        <v>-0.06015808210731119</v>
+      </c>
+      <c r="E25">
+        <v>-1.512129509313239</v>
+      </c>
+      <c r="F25">
+        <v>-0.1105926374335427</v>
+      </c>
+      <c r="G25">
+        <v>-0.0003596275579802817</v>
+      </c>
+      <c r="H25">
+        <v>-0.002855970012357016</v>
+      </c>
+      <c r="I25">
+        <v>-0.02563738679069624</v>
+      </c>
+      <c r="J25">
+        <v>-1.171873367699789</v>
+      </c>
+      <c r="K25">
+        <v>-0.04337626403843873</v>
+      </c>
+      <c r="L25">
+        <v>-0.01734705405196585</v>
+      </c>
+      <c r="M25">
+        <v>-0.004300231194282978</v>
+      </c>
+      <c r="N25">
+        <v>-5.116582586947588E-07</v>
+      </c>
+      <c r="O25">
+        <v>-0.001009445028435701</v>
+      </c>
+      <c r="P25">
+        <v>-0.001151205776606994</v>
+      </c>
+      <c r="Q25">
+        <v>-0.001187084093344866</v>
+      </c>
+      <c r="R25">
+        <v>-0.003746186859758029</v>
+      </c>
+      <c r="S25">
+        <v>-2.271545131115169E-09</v>
+      </c>
+      <c r="T25">
+        <v>-1.410274341325255E-06</v>
+      </c>
+      <c r="U25">
+        <v>-0.02499607204399441</v>
       </c>
     </row>
   </sheetData>

--- a/Brighway/Results/Ananas - APOS_recipe_unq.xlsx
+++ b/Brighway/Results/Ananas - APOS_recipe_unq.xlsx
@@ -507,1562 +507,1562 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2">
-        <v>-0.0001933860213126046</v>
+        <v>-0.0001933859780020631</v>
       </c>
       <c r="B2">
-        <v>-3.020426947445171</v>
+        <v>-3.020426937850129</v>
       </c>
       <c r="C2">
-        <v>-0.1585863093342595</v>
+        <v>-0.1585863075869944</v>
       </c>
       <c r="D2">
-        <v>-0.22963317474598</v>
+        <v>-0.2296331724767524</v>
       </c>
       <c r="E2">
-        <v>-8.833295490256482</v>
+        <v>-8.83329532450589</v>
       </c>
       <c r="F2">
-        <v>-0.005003263454369312</v>
+        <v>-0.005003261573208666</v>
       </c>
       <c r="G2">
-        <v>-2.655624556806632E-06</v>
+        <v>-2.655620862601438E-06</v>
       </c>
       <c r="H2">
-        <v>-4.732000422856896E-06</v>
+        <v>-4.732000112239149E-06</v>
       </c>
       <c r="I2">
-        <v>-0.009831379231310318</v>
+        <v>-0.009831376525261861</v>
       </c>
       <c r="J2">
-        <v>-1.917643196440264</v>
+        <v>-1.917643168895698</v>
       </c>
       <c r="K2">
-        <v>-0.0004283467008175528</v>
+        <v>-0.0004283464587189862</v>
       </c>
       <c r="L2">
-        <v>-0.0003125671983269813</v>
+        <v>-0.0003125666414811664</v>
       </c>
       <c r="M2">
-        <v>-0.0006251340313694396</v>
+        <v>-0.000625133644298645</v>
       </c>
       <c r="N2">
-        <v>-2.204923883342836E-07</v>
+        <v>-2.204923855094807E-07</v>
       </c>
       <c r="O2">
-        <v>-6.373950810845328E-05</v>
+        <v>-6.373948763398558E-05</v>
       </c>
       <c r="P2">
-        <v>-0.0004646641648935511</v>
+        <v>-0.0004646641331013507</v>
       </c>
       <c r="Q2">
-        <v>-0.0004671485550237354</v>
+        <v>-0.0004671485221118897</v>
       </c>
       <c r="R2">
-        <v>-0.001527600926881846</v>
+        <v>-0.001527600883712552</v>
       </c>
       <c r="S2">
-        <v>-8.79828341459875E-09</v>
+        <v>-8.7982833635448E-09</v>
       </c>
       <c r="T2">
-        <v>-3.31702627688527E-06</v>
+        <v>-3.317026239722042E-06</v>
       </c>
       <c r="U2">
-        <v>-0.001836594396254615</v>
+        <v>-0.001836593782534041</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3">
-        <v>-0.0001646121429095323</v>
+        <v>-0.0001646121112132043</v>
       </c>
       <c r="B3">
-        <v>-2.551055183136315</v>
+        <v>-2.551055177160587</v>
       </c>
       <c r="C3">
-        <v>-0.1339373211938241</v>
+        <v>-0.1339373196323867</v>
       </c>
       <c r="D3">
-        <v>-0.1939394980558523</v>
+        <v>-0.193939496038246</v>
       </c>
       <c r="E3">
-        <v>-7.460966752369337</v>
+        <v>-7.460966608549327</v>
       </c>
       <c r="F3">
-        <v>-0.00435787199419135</v>
+        <v>-0.004357870796008586</v>
       </c>
       <c r="G3">
-        <v>-2.414201661388316E-06</v>
+        <v>-2.414198788441675E-06</v>
       </c>
       <c r="H3">
-        <v>-4.015526219687787E-06</v>
+        <v>-4.015526026005036E-06</v>
       </c>
       <c r="I3">
-        <v>-0.008600985365453952</v>
+        <v>-0.008600983661111596</v>
       </c>
       <c r="J3">
-        <v>-1.619602097943666</v>
+        <v>-1.619602074026564</v>
       </c>
       <c r="K3">
-        <v>-0.0003773716057670341</v>
+        <v>-0.0003773714458909558</v>
       </c>
       <c r="L3">
-        <v>-0.0002772554179379304</v>
+        <v>-0.0002772549946908996</v>
       </c>
       <c r="M3">
-        <v>-0.0005834808811521514</v>
+        <v>-0.0005834806162052969</v>
       </c>
       <c r="N3">
-        <v>-1.862772752716602E-07</v>
+        <v>-1.862772734719084E-07</v>
       </c>
       <c r="O3">
-        <v>-5.554319856750769E-05</v>
+        <v>-5.554318442999898E-05</v>
       </c>
       <c r="P3">
-        <v>-0.0003938721112528457</v>
+        <v>-0.0003938720911932768</v>
       </c>
       <c r="Q3">
-        <v>-0.0003961234786869446</v>
+        <v>-0.000396123457892261</v>
       </c>
       <c r="R3">
-        <v>-0.001449330903041984</v>
+        <v>-0.001449330873976141</v>
       </c>
       <c r="S3">
-        <v>-7.431743801909519E-09</v>
+        <v>-7.431743767157732E-09</v>
       </c>
       <c r="T3">
-        <v>-2.803970337042976E-06</v>
+        <v>-2.803970311417928E-06</v>
       </c>
       <c r="U3">
-        <v>-0.001600392200519443</v>
+        <v>-0.001600391806456298</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4">
-        <v>0.006490748708424325</v>
+        <v>-0.00649074866717923</v>
       </c>
       <c r="B4">
-        <v>0.5144199093821502</v>
+        <v>-0.5144198936981689</v>
       </c>
       <c r="C4">
-        <v>0.5126269719691328</v>
+        <v>-0.5126269718184511</v>
       </c>
       <c r="D4">
-        <v>0.6554899410231377</v>
+        <v>-0.6554899407672554</v>
       </c>
       <c r="E4">
-        <v>44.9578883931368</v>
+        <v>-44.95788835801585</v>
       </c>
       <c r="F4">
-        <v>0.1431501730721036</v>
+        <v>-0.1431501703082846</v>
       </c>
       <c r="G4">
-        <v>0.0007222434662897181</v>
+        <v>-0.0007222434634683989</v>
       </c>
       <c r="H4">
-        <v>2.22725399746514E-05</v>
+        <v>-2.227253950912485E-05</v>
       </c>
       <c r="I4">
-        <v>0.07328943569864026</v>
+        <v>-0.07328943120489394</v>
       </c>
       <c r="J4">
-        <v>7.492091914340637</v>
+        <v>-7.492091908942502</v>
       </c>
       <c r="K4">
-        <v>0.05105694624585565</v>
+        <v>-0.05105694589367765</v>
       </c>
       <c r="L4">
-        <v>0.03497460223392223</v>
+        <v>-0.03497458477498962</v>
       </c>
       <c r="M4">
-        <v>0.02634864267098189</v>
+        <v>-0.02634864215136377</v>
       </c>
       <c r="N4">
-        <v>2.485598720958705E-07</v>
+        <v>-2.485598678018269E-07</v>
       </c>
       <c r="O4">
-        <v>0.002256762956399501</v>
+        <v>-0.002256762931095066</v>
       </c>
       <c r="P4">
-        <v>0.001651215716660249</v>
+        <v>-0.001651215667578795</v>
       </c>
       <c r="Q4">
-        <v>0.00172058853512832</v>
+        <v>-0.001720588484853967</v>
       </c>
       <c r="R4">
-        <v>0.004639160417674957</v>
+        <v>-0.00463916036146236</v>
       </c>
       <c r="S4">
-        <v>4.769794204374197E-09</v>
+        <v>-4.769793987822935E-09</v>
       </c>
       <c r="T4">
-        <v>3.858391572333142E-06</v>
+        <v>-3.858391525544947E-06</v>
       </c>
       <c r="U4">
-        <v>0.0469117451092436</v>
+        <v>-0.04691174425353534</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5">
-        <v>0.008734351180692724</v>
+        <v>0.008734348623335815</v>
       </c>
       <c r="B5">
-        <v>2.437375998193764</v>
+        <v>2.437374892810364</v>
       </c>
       <c r="C5">
-        <v>0.23465237171246</v>
+        <v>0.23465235418231</v>
       </c>
       <c r="D5">
-        <v>0.3035103564191078</v>
+        <v>0.3035103298315278</v>
       </c>
       <c r="E5">
-        <v>9.605181902522016</v>
+        <v>9.60517830251078</v>
       </c>
       <c r="F5">
-        <v>0.662623763541671</v>
+        <v>0.662623561572486</v>
       </c>
       <c r="G5">
-        <v>0.001700617370254118</v>
+        <v>0.00170061716899533</v>
       </c>
       <c r="H5">
-        <v>0.000360577848043252</v>
+        <v>0.0003605778244358693</v>
       </c>
       <c r="I5">
-        <v>0.2072705184443658</v>
+        <v>0.2072702124022188</v>
       </c>
       <c r="J5">
-        <v>4.470498066585846</v>
+        <v>4.470497599222576</v>
       </c>
       <c r="K5">
-        <v>0.8930474237290869</v>
+        <v>0.8930473980341069</v>
       </c>
       <c r="L5">
-        <v>0.1517816122302373</v>
+        <v>0.1517815728674811</v>
       </c>
       <c r="M5">
-        <v>0.02672113712245664</v>
+        <v>0.02672110776171682</v>
       </c>
       <c r="N5">
-        <v>1.19764404515119E-06</v>
+        <v>1.1976437482459E-06</v>
       </c>
       <c r="O5">
-        <v>0.003430800562859818</v>
+        <v>0.003430798838972964</v>
       </c>
       <c r="P5">
-        <v>0.00484148538567713</v>
+        <v>0.004841481979675116</v>
       </c>
       <c r="Q5">
-        <v>0.005099578097932316</v>
+        <v>0.005099574578490716</v>
       </c>
       <c r="R5">
-        <v>0.08932459405303397</v>
+        <v>0.08932459041104451</v>
       </c>
       <c r="S5">
-        <v>1.212538359337485E-08</v>
+        <v>1.21253789613896E-08</v>
       </c>
       <c r="T5">
-        <v>6.335539933298331E-06</v>
+        <v>6.335536689547871E-06</v>
       </c>
       <c r="U5">
-        <v>0.1691638213652371</v>
+        <v>0.1691637575798403</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6">
-        <v>0.06467968655717352</v>
+        <v>0.06467968716238505</v>
       </c>
       <c r="B6">
-        <v>14.37138819009135</v>
+        <v>14.37138855563194</v>
       </c>
       <c r="C6">
-        <v>0.5998096299322714</v>
+        <v>0.5998096042004684</v>
       </c>
       <c r="D6">
-        <v>0.7907094739601166</v>
+        <v>0.7907094425151968</v>
       </c>
       <c r="E6">
-        <v>16.21590434358562</v>
+        <v>16.21590234912581</v>
       </c>
       <c r="F6">
-        <v>3.035801176463265</v>
+        <v>3.035801244465527</v>
       </c>
       <c r="G6">
-        <v>0.004492747753106098</v>
+        <v>0.00449274778409771</v>
       </c>
       <c r="H6">
-        <v>0.0003628298888618058</v>
+        <v>0.000362829899803201</v>
       </c>
       <c r="I6">
-        <v>2.872742322271015</v>
+        <v>2.872742448185676</v>
       </c>
       <c r="J6">
-        <v>12.75296396272713</v>
+        <v>12.75296364773787</v>
       </c>
       <c r="K6">
-        <v>0.226349825837977</v>
+        <v>0.2263498361798476</v>
       </c>
       <c r="L6">
-        <v>0.1654280121108421</v>
+        <v>0.1654278318740016</v>
       </c>
       <c r="M6">
-        <v>0.2244777996830052</v>
+        <v>0.2244778116398753</v>
       </c>
       <c r="N6">
-        <v>2.977331849229263E-06</v>
+        <v>2.977331928379139E-06</v>
       </c>
       <c r="O6">
-        <v>0.02853249556358139</v>
+        <v>0.02853249603924957</v>
       </c>
       <c r="P6">
-        <v>0.03775583323890317</v>
+        <v>0.03775583427259773</v>
       </c>
       <c r="Q6">
-        <v>0.03834201624623575</v>
+        <v>0.03834201732434144</v>
       </c>
       <c r="R6">
-        <v>0.08411454813373609</v>
+        <v>0.0841145495799317</v>
       </c>
       <c r="S6">
-        <v>6.40711030089061E-08</v>
+        <v>6.407110267694001E-08</v>
       </c>
       <c r="T6">
-        <v>4.393041994601235E-05</v>
+        <v>4.393042093489563E-05</v>
       </c>
       <c r="U6">
-        <v>0.5987484205765814</v>
+        <v>0.5987484424773102</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7">
-        <v>0.01458910476100917</v>
+        <v>0.01458914266588973</v>
       </c>
       <c r="B7">
-        <v>4.918832826189973</v>
+        <v>4.918847158038039</v>
       </c>
       <c r="C7">
-        <v>0.6913127099335721</v>
+        <v>0.6913131609294013</v>
       </c>
       <c r="D7">
-        <v>0.8783057314698245</v>
+        <v>0.878306362760423</v>
       </c>
       <c r="E7">
-        <v>34.5200543261765</v>
+        <v>34.5201187783558</v>
       </c>
       <c r="F7">
-        <v>1.276408583701341</v>
+        <v>1.276411212409313</v>
       </c>
       <c r="G7">
-        <v>0.004500532755018524</v>
+        <v>0.004500535659394927</v>
       </c>
       <c r="H7">
-        <v>0.00171087490574075</v>
+        <v>0.001710875262273271</v>
       </c>
       <c r="I7">
-        <v>0.4414922105229355</v>
+        <v>0.4414961715820448</v>
       </c>
       <c r="J7">
-        <v>11.23226779067332</v>
+        <v>11.23227719405528</v>
       </c>
       <c r="K7">
-        <v>1.408311955737131</v>
+        <v>1.408312299916906</v>
       </c>
       <c r="L7">
-        <v>1.018001041004773</v>
+        <v>1.018001374690037</v>
       </c>
       <c r="M7">
-        <v>0.05528372485235687</v>
+        <v>0.05528415980923745</v>
       </c>
       <c r="N7">
-        <v>5.734846381415288E-06</v>
+        <v>5.734850564053876E-06</v>
       </c>
       <c r="O7">
-        <v>0.005031809827147599</v>
+        <v>0.005031833416492691</v>
       </c>
       <c r="P7">
-        <v>0.01022182114377772</v>
+        <v>0.01022186690453445</v>
       </c>
       <c r="Q7">
-        <v>0.01046801513341624</v>
+        <v>0.01046806229448984</v>
       </c>
       <c r="R7">
-        <v>0.09016740326463238</v>
+        <v>0.0901674546207826</v>
       </c>
       <c r="S7">
-        <v>3.122768332657191E-08</v>
+        <v>3.122774360326121E-08</v>
       </c>
       <c r="T7">
-        <v>1.197739313374288E-05</v>
+        <v>1.197743671850874E-05</v>
       </c>
       <c r="U7">
-        <v>0.2510915093428578</v>
+        <v>0.2510923436187547</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8">
-        <v>-0.06467968655717352</v>
+        <v>-0.06467968716238505</v>
       </c>
       <c r="B8">
-        <v>-14.37138819009135</v>
+        <v>-14.37138855563194</v>
       </c>
       <c r="C8">
-        <v>-0.5998096299322714</v>
+        <v>-0.5998096042004684</v>
       </c>
       <c r="D8">
-        <v>-0.7907094739601166</v>
+        <v>-0.7907094425151968</v>
       </c>
       <c r="E8">
-        <v>-16.21590434358562</v>
+        <v>-16.21590234912581</v>
       </c>
       <c r="F8">
-        <v>-3.035801176463265</v>
+        <v>-3.035801244465527</v>
       </c>
       <c r="G8">
-        <v>-0.004492747753106098</v>
+        <v>-0.00449274778409771</v>
       </c>
       <c r="H8">
-        <v>-0.0003628298888618058</v>
+        <v>-0.000362829899803201</v>
       </c>
       <c r="I8">
-        <v>-2.872742322271015</v>
+        <v>-2.872742448185676</v>
       </c>
       <c r="J8">
-        <v>-12.75296396272713</v>
+        <v>-12.75296364773787</v>
       </c>
       <c r="K8">
-        <v>-0.226349825837977</v>
+        <v>-0.2263498361798476</v>
       </c>
       <c r="L8">
-        <v>-0.1654280121108421</v>
+        <v>-0.1654278318740016</v>
       </c>
       <c r="M8">
-        <v>-0.2244777996830052</v>
+        <v>-0.2244778116398753</v>
       </c>
       <c r="N8">
-        <v>-2.977331849229263E-06</v>
+        <v>-2.977331928379139E-06</v>
       </c>
       <c r="O8">
-        <v>-0.02853249556358139</v>
+        <v>-0.02853249603924957</v>
       </c>
       <c r="P8">
-        <v>-0.03775583323890317</v>
+        <v>-0.03775583427259773</v>
       </c>
       <c r="Q8">
-        <v>-0.03834201624623575</v>
+        <v>-0.03834201732434144</v>
       </c>
       <c r="R8">
-        <v>-0.08411454813373609</v>
+        <v>-0.0841145495799317</v>
       </c>
       <c r="S8">
-        <v>-6.40711030089061E-08</v>
+        <v>-6.407110267694001E-08</v>
       </c>
       <c r="T8">
-        <v>-4.393041994601235E-05</v>
+        <v>-4.393042093489563E-05</v>
       </c>
       <c r="U8">
-        <v>-0.5987484205765814</v>
+        <v>-0.5987484424773102</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9">
-        <v>0.004920052795027145</v>
+        <v>0.004920083434061502</v>
       </c>
       <c r="B9">
-        <v>1.469122008795146</v>
+        <v>1.46913362520809</v>
       </c>
       <c r="C9">
-        <v>0.3118272586138922</v>
+        <v>0.3118276241131356</v>
       </c>
       <c r="D9">
-        <v>0.3930462912178805</v>
+        <v>0.3930468029075995</v>
       </c>
       <c r="E9">
-        <v>15.84664365554599</v>
+        <v>15.84669606428846</v>
       </c>
       <c r="F9">
-        <v>0.3811532631822493</v>
+        <v>0.3811553941407787</v>
       </c>
       <c r="G9">
-        <v>0.00131993745340433</v>
+        <v>0.001319939803270046</v>
       </c>
       <c r="H9">
-        <v>0.0003030936750849691</v>
+        <v>0.000303093961757541</v>
       </c>
       <c r="I9">
-        <v>0.1365887742626036</v>
+        <v>0.1365919852093001</v>
       </c>
       <c r="J9">
-        <v>4.161611372842219</v>
+        <v>4.161619011141347</v>
       </c>
       <c r="K9">
-        <v>0.4058799825691616</v>
+        <v>0.4058802600836957</v>
       </c>
       <c r="L9">
-        <v>0.2956213198035792</v>
+        <v>0.2956215910562547</v>
       </c>
       <c r="M9">
-        <v>0.01874376973173062</v>
+        <v>0.01874411812835501</v>
       </c>
       <c r="N9">
-        <v>1.617064678489481E-06</v>
+        <v>1.617068050459932E-06</v>
       </c>
       <c r="O9">
-        <v>0.001700580563856562</v>
+        <v>0.00170059965870718</v>
       </c>
       <c r="P9">
-        <v>0.003108226787398668</v>
+        <v>0.003108263892347121</v>
       </c>
       <c r="Q9">
-        <v>0.003186244258398607</v>
+        <v>0.003186282505890105</v>
       </c>
       <c r="R9">
-        <v>0.02633717963697675</v>
+        <v>0.02633722091855759</v>
       </c>
       <c r="S9">
-        <v>9.512325997745411E-09</v>
+        <v>9.512374844999462E-09</v>
       </c>
       <c r="T9">
-        <v>3.899648635677326E-06</v>
+        <v>3.899683951034838E-06</v>
       </c>
       <c r="U9">
-        <v>0.07740151595425937</v>
+        <v>0.07740219230016517</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10">
-        <v>-0.001398397649790301</v>
+        <v>-0.001398397542059534</v>
       </c>
       <c r="B10">
-        <v>-0.7567638897651974</v>
+        <v>-0.7567638610692226</v>
       </c>
       <c r="C10">
-        <v>-0.01833915641780064</v>
+        <v>-0.01833915298878865</v>
       </c>
       <c r="D10">
-        <v>-0.0243450884727981</v>
+        <v>-0.02434508397932846</v>
       </c>
       <c r="E10">
-        <v>-0.1475129260844719</v>
+        <v>-0.1475125870612144</v>
       </c>
       <c r="F10">
-        <v>-0.02691728422212455</v>
+        <v>-0.02691727873299442</v>
       </c>
       <c r="G10">
-        <v>-9.76181230105246E-06</v>
+        <v>-9.76180340801213E-06</v>
       </c>
       <c r="H10">
-        <v>-0.0002333030154358822</v>
+        <v>-0.0002333030145638327</v>
       </c>
       <c r="I10">
-        <v>-0.006488527882317461</v>
+        <v>-0.006488519486036783</v>
       </c>
       <c r="J10">
-        <v>-0.4347469726157469</v>
+        <v>-0.4347469170177117</v>
       </c>
       <c r="K10">
-        <v>-0.001827153098503169</v>
+        <v>-0.001827152392950958</v>
       </c>
       <c r="L10">
-        <v>-0.0007984172551322092</v>
+        <v>-0.0007984161044267991</v>
       </c>
       <c r="M10">
-        <v>-0.002098157273755057</v>
+        <v>-0.002098156185869051</v>
       </c>
       <c r="N10">
-        <v>-1.167375886680977E-05</v>
+        <v>-1.167375885843779E-05</v>
       </c>
       <c r="O10">
-        <v>-0.0004388304422689772</v>
+        <v>-0.0004388303867783279</v>
       </c>
       <c r="P10">
-        <v>-0.003158334789964745</v>
+        <v>-0.003158334696390422</v>
       </c>
       <c r="Q10">
-        <v>-0.003169012395615686</v>
+        <v>-0.003169012298860107</v>
       </c>
       <c r="R10">
-        <v>-0.002121980153249643</v>
+        <v>-0.002121980031527962</v>
       </c>
       <c r="S10">
-        <v>-2.854796095339771E-09</v>
+        <v>-2.854795956773121E-09</v>
       </c>
       <c r="T10">
-        <v>-1.113231043517684E-06</v>
+        <v>-1.113230941094315E-06</v>
       </c>
       <c r="U10">
-        <v>-0.009696645340670104</v>
+        <v>-0.009696643566950125</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11">
-        <v>0.002954330228152711</v>
+        <v>0.002954330315464141</v>
       </c>
       <c r="B11">
-        <v>0.9296644556022727</v>
+        <v>0.9296644604685348</v>
       </c>
       <c r="C11">
-        <v>0.05026758559857547</v>
+        <v>0.05026759216516265</v>
       </c>
       <c r="D11">
-        <v>0.06596207428779627</v>
+        <v>0.0659620826779018</v>
       </c>
       <c r="E11">
-        <v>4.048750529927658</v>
+        <v>4.048751093397805</v>
       </c>
       <c r="F11">
-        <v>0.2642031013714461</v>
+        <v>0.2642031027915641</v>
       </c>
       <c r="G11">
-        <v>0.0005412411816685352</v>
+        <v>0.000541241191072266</v>
       </c>
       <c r="H11">
-        <v>0.0005718955873844527</v>
+        <v>0.0005718955874991771</v>
       </c>
       <c r="I11">
-        <v>0.05631647957951343</v>
+        <v>0.0563164820403152</v>
       </c>
       <c r="J11">
-        <v>1.143238349375713</v>
+        <v>1.143238443744542</v>
       </c>
       <c r="K11">
-        <v>0.09171312785818601</v>
+        <v>0.09171312863740634</v>
       </c>
       <c r="L11">
-        <v>0.4061157080732998</v>
+        <v>0.4061157252495418</v>
       </c>
       <c r="M11">
-        <v>0.01086214357257259</v>
+        <v>0.01086214369158255</v>
       </c>
       <c r="N11">
-        <v>8.925568976722872E-07</v>
+        <v>8.925568999183088E-07</v>
       </c>
       <c r="O11">
-        <v>0.001149453918875525</v>
+        <v>0.001149453947935687</v>
       </c>
       <c r="P11">
-        <v>0.002928291082346396</v>
+        <v>0.002928291100976472</v>
       </c>
       <c r="Q11">
-        <v>0.003045221186756425</v>
+        <v>0.003045221206478604</v>
       </c>
       <c r="R11">
-        <v>0.01506821619098456</v>
+        <v>0.01506821626864342</v>
       </c>
       <c r="S11">
-        <v>7.67607435191934E-09</v>
+        <v>7.676074557226225E-09</v>
       </c>
       <c r="T11">
-        <v>2.070234384248597E-06</v>
+        <v>2.070234436892489E-06</v>
       </c>
       <c r="U11">
-        <v>0.08881798788535666</v>
+        <v>0.08881798826654566</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12">
-        <v>0.006306594984585275</v>
+        <v>0.006306594916408378</v>
       </c>
       <c r="B12">
-        <v>2.38015711073273</v>
+        <v>2.380157081054798</v>
       </c>
       <c r="C12">
-        <v>0.05477911046621364</v>
+        <v>0.05477911115356571</v>
       </c>
       <c r="D12">
-        <v>0.07305764603769832</v>
+        <v>0.07305764699849322</v>
       </c>
       <c r="E12">
-        <v>5.040002556193191</v>
+        <v>5.040002776586014</v>
       </c>
       <c r="F12">
-        <v>1.712789172696012</v>
+        <v>1.712789163206113</v>
       </c>
       <c r="G12">
-        <v>0.0003918421295506679</v>
+        <v>0.0003918421273922874</v>
       </c>
       <c r="H12">
-        <v>3.966915212253189E-05</v>
+        <v>3.96691504029842E-05</v>
       </c>
       <c r="I12">
-        <v>0.08680592892389903</v>
+        <v>0.08680592292510378</v>
       </c>
       <c r="J12">
-        <v>1.158757400962148</v>
+        <v>1.158757438656467</v>
       </c>
       <c r="K12">
-        <v>0.04720858450405262</v>
+        <v>0.0472085841079361</v>
       </c>
       <c r="L12">
-        <v>0.01860273655276655</v>
+        <v>0.01860273138658017</v>
       </c>
       <c r="M12">
-        <v>0.01829508837712853</v>
+        <v>0.0182950835212147</v>
       </c>
       <c r="N12">
-        <v>2.736037827238668E-07</v>
+        <v>2.73603767206707E-07</v>
       </c>
       <c r="O12">
-        <v>0.002394198265479967</v>
+        <v>0.002394198221511927</v>
       </c>
       <c r="P12">
-        <v>0.004936109065927889</v>
+        <v>0.004936108953631289</v>
       </c>
       <c r="Q12">
-        <v>0.005285702027961778</v>
+        <v>0.005285701904150442</v>
       </c>
       <c r="R12">
-        <v>0.01750248341488878</v>
+        <v>0.01750248317819683</v>
       </c>
       <c r="S12">
-        <v>9.216777588107488E-09</v>
+        <v>9.216777430350525E-09</v>
       </c>
       <c r="T12">
-        <v>4.309032809863641E-06</v>
+        <v>4.30903274272146E-06</v>
       </c>
       <c r="U12">
-        <v>0.6779803074732977</v>
+        <v>0.6779803029887712</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13">
-        <v>0.02514339373333194</v>
+        <v>0.02514339520368171</v>
       </c>
       <c r="B13">
-        <v>8.244466961568794</v>
+        <v>8.244467594778254</v>
       </c>
       <c r="C13">
-        <v>0.2866124196887435</v>
+        <v>0.2866124251531116</v>
       </c>
       <c r="D13">
-        <v>0.3723967642275128</v>
+        <v>0.3723967739005953</v>
       </c>
       <c r="E13">
-        <v>25.68273757593157</v>
+        <v>25.68273950040606</v>
       </c>
       <c r="F13">
-        <v>4.031258630627724</v>
+        <v>4.031258741821499</v>
       </c>
       <c r="G13">
-        <v>0.00228897244551023</v>
+        <v>0.002288972557605287</v>
       </c>
       <c r="H13">
-        <v>0.0003802852982280292</v>
+        <v>0.0003802853115338708</v>
       </c>
       <c r="I13">
-        <v>0.3771827420775103</v>
+        <v>0.3771829153770738</v>
       </c>
       <c r="J13">
-        <v>7.316895278517839</v>
+        <v>7.316895532217199</v>
       </c>
       <c r="K13">
-        <v>0.3946876833805683</v>
+        <v>0.3946876989380021</v>
       </c>
       <c r="L13">
-        <v>0.106186891242773</v>
+        <v>0.106186823390547</v>
       </c>
       <c r="M13">
-        <v>0.1953829435788183</v>
+        <v>0.1953829577343179</v>
       </c>
       <c r="N13">
-        <v>2.270205728238268E-06</v>
+        <v>2.270205899368356E-06</v>
       </c>
       <c r="O13">
-        <v>0.01225116870006005</v>
+        <v>0.01225116968946137</v>
       </c>
       <c r="P13">
-        <v>0.01846342014848141</v>
+        <v>0.01846342210841279</v>
       </c>
       <c r="Q13">
-        <v>0.01994378407933742</v>
+        <v>0.01994378609230701</v>
       </c>
       <c r="R13">
-        <v>0.1342957562319668</v>
+        <v>0.1342957582504124</v>
       </c>
       <c r="S13">
-        <v>3.400264730796096E-08</v>
+        <v>3.400264915215933E-08</v>
       </c>
       <c r="T13">
-        <v>1.858819378805762E-05</v>
+        <v>1.858819563740111E-05</v>
       </c>
       <c r="U13">
-        <v>1.440299956855278</v>
+        <v>1.440299990752798</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14">
-        <v>0.0005067526630115968</v>
+        <v>0.000506752698440179</v>
       </c>
       <c r="B14">
-        <v>0.209072495910291</v>
+        <v>0.2090725084754116</v>
       </c>
       <c r="C14">
-        <v>0.01296366853701486</v>
+        <v>0.01296366884275888</v>
       </c>
       <c r="D14">
-        <v>0.01690434903953495</v>
+        <v>0.01690434946378652</v>
       </c>
       <c r="E14">
-        <v>0.5827242457933571</v>
+        <v>0.5827242767184685</v>
       </c>
       <c r="F14">
-        <v>0.0550480139705858</v>
+        <v>0.05504801634620456</v>
       </c>
       <c r="G14">
-        <v>0.000173750446756612</v>
+        <v>0.0001737504493250648</v>
       </c>
       <c r="H14">
-        <v>1.504736242441767E-05</v>
+        <v>1.504736284799865E-05</v>
       </c>
       <c r="I14">
-        <v>0.01732092058056139</v>
+        <v>0.01732092388596248</v>
       </c>
       <c r="J14">
-        <v>0.3091296936910886</v>
+        <v>0.3091296986112552</v>
       </c>
       <c r="K14">
-        <v>0.06332675927931133</v>
+        <v>0.06332675958059696</v>
       </c>
       <c r="L14">
-        <v>0.04609386080705809</v>
+        <v>0.04609385963832566</v>
       </c>
       <c r="M14">
-        <v>0.001418517428159682</v>
+        <v>0.00141851803128909</v>
       </c>
       <c r="N14">
-        <v>2.385586282672554E-07</v>
+        <v>2.385586325560784E-07</v>
       </c>
       <c r="O14">
-        <v>0.0001724650390894035</v>
+        <v>0.0001724650594506207</v>
       </c>
       <c r="P14">
-        <v>0.0004212607329935954</v>
+        <v>0.0004212607702962896</v>
       </c>
       <c r="Q14">
-        <v>0.000430768966364615</v>
+        <v>0.0004307690048541318</v>
       </c>
       <c r="R14">
-        <v>0.003780097054392465</v>
+        <v>0.003780097113326589</v>
       </c>
       <c r="S14">
-        <v>1.291043642952362E-09</v>
+        <v>1.291043682571992E-09</v>
       </c>
       <c r="T14">
-        <v>4.398193849684704E-07</v>
+        <v>4.398194216935978E-07</v>
       </c>
       <c r="U14">
-        <v>0.01027810192649818</v>
+        <v>0.01027810270339144</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15">
-        <v>0.0001116859593077519</v>
+        <v>0.0001116860927797902</v>
       </c>
       <c r="B15">
-        <v>0.03502596251550603</v>
+        <v>0.03502601342908648</v>
       </c>
       <c r="C15">
-        <v>0.001836059174135698</v>
+        <v>0.001836060729735545</v>
       </c>
       <c r="D15">
-        <v>0.002400945474813028</v>
+        <v>0.002400947656847138</v>
       </c>
       <c r="E15">
-        <v>0.1765878390601399</v>
+        <v>0.1765880653079173</v>
       </c>
       <c r="F15">
-        <v>0.009995806452857036</v>
+        <v>0.009995815794573513</v>
       </c>
       <c r="G15">
-        <v>1.081272871080623E-05</v>
+        <v>1.081273894467317E-05</v>
       </c>
       <c r="H15">
-        <v>1.173015089412071E-06</v>
+        <v>1.173016339968257E-06</v>
       </c>
       <c r="I15">
-        <v>0.001591682065869453</v>
+        <v>0.001591696074100287</v>
       </c>
       <c r="J15">
-        <v>0.04413415025430793</v>
+        <v>0.04413418314020646</v>
       </c>
       <c r="K15">
-        <v>0.002933683641988844</v>
+        <v>0.002933684878007346</v>
       </c>
       <c r="L15">
-        <v>0.02273867491595609</v>
+        <v>0.02273867578378852</v>
       </c>
       <c r="M15">
-        <v>0.0002052861477473816</v>
+        <v>0.0002052876617504548</v>
       </c>
       <c r="N15">
-        <v>3.355107243773479E-08</v>
+        <v>3.355108718139544E-08</v>
       </c>
       <c r="O15">
-        <v>4.868150964177029E-05</v>
+        <v>4.868159321016228E-05</v>
       </c>
       <c r="P15">
-        <v>0.0001277723904369537</v>
+        <v>0.000127772552719501</v>
       </c>
       <c r="Q15">
-        <v>0.0001323717927203802</v>
+        <v>0.0001323719600079347</v>
       </c>
       <c r="R15">
-        <v>0.0002357343699951532</v>
+        <v>0.0002357345485109135</v>
       </c>
       <c r="S15">
-        <v>3.512561889709598E-10</v>
+        <v>3.512563998741362E-10</v>
       </c>
       <c r="T15">
-        <v>7.913142760437322E-08</v>
+        <v>7.913158195496756E-08</v>
       </c>
       <c r="U15">
-        <v>0.003053060268478054</v>
+        <v>0.003053063231154696</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16">
-        <v>0.008308026032321962</v>
+        <v>0.008308025770475458</v>
       </c>
       <c r="B16">
-        <v>2.99499554185447</v>
+        <v>2.994995444990702</v>
       </c>
       <c r="C16">
-        <v>0.08132473173312714</v>
+        <v>0.08132472749917807</v>
       </c>
       <c r="D16">
-        <v>0.1081263178417679</v>
+        <v>0.1081263120596229</v>
       </c>
       <c r="E16">
-        <v>6.126189805142694</v>
+        <v>6.126189255180691</v>
       </c>
       <c r="F16">
-        <v>1.844189636148625</v>
+        <v>1.844189618686522</v>
       </c>
       <c r="G16">
-        <v>0.0007933755493453013</v>
+        <v>0.0007933755282022679</v>
       </c>
       <c r="H16">
-        <v>0.0001081595989177015</v>
+        <v>0.0001081595967775501</v>
       </c>
       <c r="I16">
-        <v>0.1244992793928068</v>
+        <v>0.1244992527103788</v>
       </c>
       <c r="J16">
-        <v>1.881571078574233</v>
+        <v>1.881571000567252</v>
       </c>
       <c r="K16">
-        <v>0.2459796808656249</v>
+        <v>0.2459796785368673</v>
       </c>
       <c r="L16">
-        <v>0.08189164710159881</v>
+        <v>0.08189164410750974</v>
       </c>
       <c r="M16">
-        <v>0.01995815307436707</v>
+        <v>0.01995815009780346</v>
       </c>
       <c r="N16">
-        <v>5.533024180630062E-07</v>
+        <v>5.53302390146824E-07</v>
       </c>
       <c r="O16">
-        <v>0.003524272069937896</v>
+        <v>0.003524271905444115</v>
       </c>
       <c r="P16">
-        <v>0.006931818745698967</v>
+        <v>0.006931818434115715</v>
       </c>
       <c r="Q16">
-        <v>0.007618644479114779</v>
+        <v>0.007618644158733817</v>
       </c>
       <c r="R16">
-        <v>0.0482742226795449</v>
+        <v>0.04827422234409749</v>
       </c>
       <c r="S16">
-        <v>1.252850026284361E-08</v>
+        <v>1.252849984418828E-08</v>
       </c>
       <c r="T16">
-        <v>5.951745842330678E-06</v>
+        <v>5.951745541603818E-06</v>
       </c>
       <c r="U16">
-        <v>0.6974983740162694</v>
+        <v>0.6974983685606012</v>
       </c>
     </row>
     <row r="17" spans="1:21">
       <c r="A17">
-        <v>-0.0002716547544828525</v>
+        <v>-0.0002716546037256985</v>
       </c>
       <c r="B17">
-        <v>-2.372984789373008</v>
+        <v>-2.372984742320073</v>
       </c>
       <c r="C17">
-        <v>-0.1201199403142206</v>
+        <v>-0.1201199364522475</v>
       </c>
       <c r="D17">
-        <v>-0.1599610780196073</v>
+        <v>-0.1599610729078144</v>
       </c>
       <c r="E17">
-        <v>-1.265781390303511</v>
+        <v>-1.265780974325679</v>
       </c>
       <c r="F17">
-        <v>-0.007903472346808096</v>
+        <v>-0.007903463551571632</v>
       </c>
       <c r="G17">
-        <v>-5.236333320861513E-06</v>
+        <v>-5.236320919209528E-06</v>
       </c>
       <c r="H17">
-        <v>-2.145684017941346E-05</v>
+        <v>-2.145683896161454E-05</v>
       </c>
       <c r="I17">
-        <v>-0.02399120230319333</v>
+        <v>-0.02399118920114385</v>
       </c>
       <c r="J17">
-        <v>-2.349947012932398</v>
+        <v>-2.349946947515487</v>
       </c>
       <c r="K17">
-        <v>-0.001044697373016302</v>
+        <v>-0.001044696218226963</v>
       </c>
       <c r="L17">
-        <v>-0.0005566571329566905</v>
+        <v>-0.0005566556548893581</v>
       </c>
       <c r="M17">
-        <v>-0.001265724478160119</v>
+        <v>-0.001265722926238842</v>
       </c>
       <c r="N17">
-        <v>-1.017244154362191E-06</v>
+        <v>-1.017244140573054E-06</v>
       </c>
       <c r="O17">
-        <v>-9.178320067458853E-05</v>
+        <v>-9.178311587808686E-05</v>
       </c>
       <c r="P17">
-        <v>-0.0006027121134407656</v>
+        <v>-0.0006027119613939993</v>
       </c>
       <c r="Q17">
-        <v>-0.000606825837616933</v>
+        <v>-0.0006068256806977131</v>
       </c>
       <c r="R17">
-        <v>-0.00372341049871036</v>
+        <v>-0.003723410318947055</v>
       </c>
       <c r="S17">
-        <v>-6.903281213747662E-09</v>
+        <v>-6.903281000391467E-09</v>
       </c>
       <c r="T17">
-        <v>-2.884956519044324E-06</v>
+        <v>-2.884956363111676E-06</v>
       </c>
       <c r="U17">
-        <v>-0.002983727160488733</v>
+        <v>-0.002983724347538113</v>
       </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18">
-        <v>0.001472941872926904</v>
+        <v>0.001472941887565855</v>
       </c>
       <c r="B18">
-        <v>0.4466067986939458</v>
+        <v>0.4466068035078593</v>
       </c>
       <c r="C18">
-        <v>0.06155749408253352</v>
+        <v>0.06155749392909356</v>
       </c>
       <c r="D18">
-        <v>0.08070113097661326</v>
+        <v>0.08070113080292152</v>
       </c>
       <c r="E18">
-        <v>4.132010292334727</v>
+        <v>4.132010291704068</v>
       </c>
       <c r="F18">
-        <v>0.1258350342906459</v>
+        <v>0.1258350351158387</v>
       </c>
       <c r="G18">
-        <v>0.0009776636111920841</v>
+        <v>0.0009776636116093206</v>
       </c>
       <c r="H18">
-        <v>8.922302560865396E-05</v>
+        <v>8.922302575177431E-05</v>
       </c>
       <c r="I18">
-        <v>0.07847873153529604</v>
+        <v>0.07847873190524596</v>
       </c>
       <c r="J18">
-        <v>1.160180120683153</v>
+        <v>1.160180121288143</v>
       </c>
       <c r="K18">
-        <v>0.1157339475613744</v>
+        <v>0.1157339475965174</v>
       </c>
       <c r="L18">
-        <v>0.03126211638407748</v>
+        <v>0.03126211753005712</v>
       </c>
       <c r="M18">
-        <v>0.01528680254401629</v>
+        <v>0.01528680258557813</v>
       </c>
       <c r="N18">
-        <v>2.443636045471282E-07</v>
+        <v>2.443636057722111E-07</v>
       </c>
       <c r="O18">
-        <v>0.0007059247891356513</v>
+        <v>0.0007059247964974666</v>
       </c>
       <c r="P18">
-        <v>0.001177074629589663</v>
+        <v>0.001177074645891071</v>
       </c>
       <c r="Q18">
-        <v>0.001227075482123758</v>
+        <v>0.001227075498761865</v>
       </c>
       <c r="R18">
-        <v>0.004837597847137044</v>
+        <v>0.00483759785850662</v>
       </c>
       <c r="S18">
-        <v>2.752645470098878E-09</v>
+        <v>2.752645499148837E-09</v>
       </c>
       <c r="T18">
-        <v>1.396138037841249E-06</v>
+        <v>1.396138048345291E-06</v>
       </c>
       <c r="U18">
-        <v>0.03991209987963913</v>
+        <v>0.03991210013237416</v>
       </c>
     </row>
     <row r="19" spans="1:21">
       <c r="A19">
-        <v>0.0001368194077937026</v>
+        <v>0.0001153209425120324</v>
       </c>
       <c r="B19">
-        <v>0.02336578425679235</v>
+        <v>0.02510122912425886</v>
       </c>
       <c r="C19">
-        <v>0.0009668459745182923</v>
+        <v>0.001026321754252939</v>
       </c>
       <c r="D19">
-        <v>0.001040972666931465</v>
+        <v>0.001120012169064754</v>
       </c>
       <c r="E19">
-        <v>0.05639195067846991</v>
+        <v>0.06055688768726327</v>
       </c>
       <c r="F19">
-        <v>0.01144523379250067</v>
+        <v>0.01378805925302738</v>
       </c>
       <c r="G19">
-        <v>9.168122480212097E-06</v>
+        <v>1.014752286100685E-05</v>
       </c>
       <c r="H19">
-        <v>4.798860279610473E-05</v>
+        <v>4.403598408468652E-05</v>
       </c>
       <c r="I19">
-        <v>0.001003582580325428</v>
+        <v>0.001051601479050608</v>
       </c>
       <c r="J19">
-        <v>0.01962572093199583</v>
+        <v>0.02081668036627615</v>
       </c>
       <c r="K19">
-        <v>0.00163783716792114</v>
+        <v>0.001476698358564506</v>
       </c>
       <c r="L19">
-        <v>0.01027492678701354</v>
+        <v>0.006459781521121599</v>
       </c>
       <c r="M19">
-        <v>0.0001650910866922283</v>
+        <v>0.0001626782559510069</v>
       </c>
       <c r="N19">
-        <v>7.182349352281389E-08</v>
+        <v>5.453074597386746E-08</v>
       </c>
       <c r="O19">
-        <v>3.748100354017047E-05</v>
+        <v>3.500479420130749E-05</v>
       </c>
       <c r="P19">
-        <v>0.0004205842361289492</v>
+        <v>0.0004227994058062644</v>
       </c>
       <c r="Q19">
-        <v>0.0006459375855579697</v>
+        <v>0.0006490091932211448</v>
       </c>
       <c r="R19">
-        <v>0.004767416853936729</v>
+        <v>0.004768146427748436</v>
       </c>
       <c r="S19">
-        <v>2.764691450088417E-10</v>
+        <v>2.440524841581184E-10</v>
       </c>
       <c r="T19">
-        <v>6.407037701432373E-08</v>
+        <v>6.454417719817281E-08</v>
       </c>
       <c r="U19">
-        <v>0.004276333368970334</v>
+        <v>0.005234764335388258</v>
       </c>
     </row>
     <row r="20" spans="1:21">
       <c r="A20">
-        <v>-0.0008081264830573909</v>
+        <v>-0.0008081264905626615</v>
       </c>
       <c r="B20">
-        <v>-0.2295373654280823</v>
+        <v>-0.2295373648950274</v>
       </c>
       <c r="C20">
-        <v>-0.0515953416505202</v>
+        <v>-0.05159534166206375</v>
       </c>
       <c r="D20">
-        <v>-0.06665592834793431</v>
+        <v>-0.06665592836970054</v>
       </c>
       <c r="E20">
-        <v>-1.410460071361025</v>
+        <v>-1.41046007005785</v>
       </c>
       <c r="F20">
-        <v>-0.05831111780177639</v>
+        <v>-0.05831111769460639</v>
       </c>
       <c r="G20">
-        <v>-0.0001822553855451866</v>
+        <v>-0.0001822553854934682</v>
       </c>
       <c r="H20">
-        <v>-4.752512916456324E-05</v>
+        <v>-4.752512929891862E-05</v>
       </c>
       <c r="I20">
-        <v>-0.01869715403633954</v>
+        <v>-0.0186971534306735</v>
       </c>
       <c r="J20">
-        <v>-0.9231011958592998</v>
+        <v>-0.9231011983584365</v>
       </c>
       <c r="K20">
-        <v>-0.1039225953956226</v>
+        <v>-0.1039225953794432</v>
       </c>
       <c r="L20">
-        <v>-0.01063922802636578</v>
+        <v>-0.01063923015744303</v>
       </c>
       <c r="M20">
-        <v>-0.00485464753349656</v>
+        <v>-0.004854647535390679</v>
       </c>
       <c r="N20">
-        <v>-1.438795708347898E-07</v>
+        <v>-1.43879570505102E-07</v>
       </c>
       <c r="O20">
-        <v>-0.0003364307432762327</v>
+        <v>-0.0003364307433598033</v>
       </c>
       <c r="P20">
-        <v>-0.0004101379604272473</v>
+        <v>-0.0004101379594045735</v>
       </c>
       <c r="Q20">
-        <v>-0.0004252006780450761</v>
+        <v>-0.0004252006768185018</v>
       </c>
       <c r="R20">
-        <v>-0.002658582965888077</v>
+        <v>-0.00265858296699753</v>
       </c>
       <c r="S20">
-        <v>-1.14432725138286E-09</v>
+        <v>-1.144327270199735E-09</v>
       </c>
       <c r="T20">
-        <v>-7.042086974777756E-07</v>
+        <v>-7.042086955962113E-07</v>
       </c>
       <c r="U20">
-        <v>-0.01431641535423023</v>
+        <v>-0.01431641532114871</v>
       </c>
     </row>
     <row r="21" spans="1:21">
       <c r="A21">
-        <v>-0.001668242691290568</v>
+        <v>-0.001668242708615824</v>
       </c>
       <c r="B21">
-        <v>-0.6162118472448983</v>
+        <v>-0.6162118519528299</v>
       </c>
       <c r="C21">
-        <v>-0.1278517751709737</v>
+        <v>-0.1278517758814769</v>
       </c>
       <c r="D21">
-        <v>-0.1657905744050177</v>
+        <v>-0.165790575326408</v>
       </c>
       <c r="E21">
-        <v>-2.682004220814991</v>
+        <v>-2.682004301929678</v>
       </c>
       <c r="F21">
-        <v>-0.16753661416309</v>
+        <v>-0.1675366151090999</v>
       </c>
       <c r="G21">
-        <v>-0.0003625034887321435</v>
+        <v>-0.0003625034901135369</v>
       </c>
       <c r="H21">
-        <v>-0.0001240375863216134</v>
+        <v>-0.0001240375863443338</v>
       </c>
       <c r="I21">
-        <v>-0.03917146126516644</v>
+        <v>-0.03917146105473773</v>
       </c>
       <c r="J21">
-        <v>-2.364617655056103</v>
+        <v>-2.364617667572605</v>
       </c>
       <c r="K21">
-        <v>-0.2019829563616294</v>
+        <v>-0.2019829564747894</v>
       </c>
       <c r="L21">
-        <v>-0.01813379632333814</v>
+        <v>-0.01813378270847057</v>
       </c>
       <c r="M21">
-        <v>-0.007400243845184123</v>
+        <v>-0.00740024377880313</v>
       </c>
       <c r="N21">
-        <v>-3.071098682776939E-07</v>
+        <v>-3.071098696271077E-07</v>
       </c>
       <c r="O21">
-        <v>-0.0006888501989372366</v>
+        <v>-0.0006888502077074643</v>
       </c>
       <c r="P21">
-        <v>-0.001001551507068022</v>
+        <v>-0.001001551523647887</v>
       </c>
       <c r="Q21">
-        <v>-0.001052346460317087</v>
+        <v>-0.001052346477648252</v>
       </c>
       <c r="R21">
-        <v>-0.005979196382444492</v>
+        <v>-0.005979196388476461</v>
       </c>
       <c r="S21">
-        <v>-2.755513160494628E-09</v>
+        <v>-2.755513061170725E-09</v>
       </c>
       <c r="T21">
-        <v>-1.690064360839101E-06</v>
+        <v>-1.690064372904912E-06</v>
       </c>
       <c r="U21">
-        <v>-0.0462787600890552</v>
+        <v>-0.04627876040005649</v>
       </c>
     </row>
     <row r="22" spans="1:21">
       <c r="A22">
-        <v>0.002840721756832448</v>
+        <v>0.002840721753238805</v>
       </c>
       <c r="B22">
-        <v>0.7639651406918052</v>
+        <v>0.7639651333922632</v>
       </c>
       <c r="C22">
-        <v>0.04502625832020708</v>
+        <v>0.04502625789384448</v>
       </c>
       <c r="D22">
-        <v>0.05861454613429019</v>
+        <v>0.05861454557213922</v>
       </c>
       <c r="E22">
-        <v>3.677716535443144</v>
+        <v>3.67771648106792</v>
       </c>
       <c r="F22">
-        <v>0.1970142966274018</v>
+        <v>0.1970142954984188</v>
       </c>
       <c r="G22">
-        <v>0.0002860356543564423</v>
+        <v>0.0002860356527598897</v>
       </c>
       <c r="H22">
-        <v>3.820379834171732E-05</v>
+        <v>3.820379854581006E-05</v>
       </c>
       <c r="I22">
-        <v>0.03842833850031879</v>
+        <v>0.03842833663273422</v>
       </c>
       <c r="J22">
-        <v>0.791167917997269</v>
+        <v>0.7911679154094833</v>
       </c>
       <c r="K22">
-        <v>0.08027073780505294</v>
+        <v>0.08027073766828041</v>
       </c>
       <c r="L22">
-        <v>0.01617315254536853</v>
+        <v>0.01617316145816137</v>
       </c>
       <c r="M22">
-        <v>0.0082987063319336</v>
+        <v>0.008298706226362898</v>
       </c>
       <c r="N22">
-        <v>3.009179222689328E-07</v>
+        <v>3.009179196397232E-07</v>
       </c>
       <c r="O22">
-        <v>0.001561111753364653</v>
+        <v>0.001561111741876576</v>
       </c>
       <c r="P22">
-        <v>0.002422870135178896</v>
+        <v>0.00242287011044428</v>
       </c>
       <c r="Q22">
-        <v>0.002485677023067413</v>
+        <v>0.002485676998014024</v>
       </c>
       <c r="R22">
-        <v>0.005126486693657509</v>
+        <v>0.005126486685401108</v>
       </c>
       <c r="S22">
-        <v>3.476906340160509E-09</v>
+        <v>3.476906392795751E-09</v>
       </c>
       <c r="T22">
-        <v>2.012499619508655E-06</v>
+        <v>2.012499598679857E-06</v>
       </c>
       <c r="U22">
-        <v>0.05049445762597492</v>
+        <v>0.05049445730062507</v>
       </c>
     </row>
     <row r="23" spans="1:21">
       <c r="A23">
-        <v>0.000305352483041887</v>
+        <v>0.0003053525263640211</v>
       </c>
       <c r="B23">
-        <v>0.1884542818022098</v>
+        <v>0.1884542976465381</v>
       </c>
       <c r="C23">
-        <v>0.004663678930038658</v>
+        <v>0.004663679519182975</v>
       </c>
       <c r="D23">
-        <v>0.008280255992673888</v>
+        <v>0.008280256806288981</v>
       </c>
       <c r="E23">
-        <v>3.590255231003151</v>
+        <v>3.59025530966711</v>
       </c>
       <c r="F23">
-        <v>0.05929105877324206</v>
+        <v>0.05929106169921625</v>
       </c>
       <c r="G23">
-        <v>1.336079320661228E-05</v>
+        <v>1.336079652848856E-05</v>
       </c>
       <c r="H23">
-        <v>5.282552115146862E-06</v>
+        <v>5.282552519909894E-06</v>
       </c>
       <c r="I23">
-        <v>0.009731772241595181</v>
+        <v>0.009731776642444699</v>
       </c>
       <c r="J23">
-        <v>0.1466184828165562</v>
+        <v>0.1466184946584427</v>
       </c>
       <c r="K23">
-        <v>0.003031429125756262</v>
+        <v>0.003031429508795748</v>
       </c>
       <c r="L23">
-        <v>0.007092274211789916</v>
+        <v>0.00709227445502254</v>
       </c>
       <c r="M23">
-        <v>0.002112406313800612</v>
+        <v>0.002112406802633662</v>
       </c>
       <c r="N23">
-        <v>8.610568015230132E-08</v>
+        <v>8.610568478608238E-08</v>
       </c>
       <c r="O23">
-        <v>0.0001495603241750118</v>
+        <v>0.0001495603506043713</v>
       </c>
       <c r="P23">
-        <v>0.0003475467491939984</v>
+        <v>0.0003475468002142304</v>
       </c>
       <c r="Q23">
-        <v>0.00038702322310806</v>
+        <v>0.0003870232757162583</v>
       </c>
       <c r="R23">
-        <v>0.000304399999210125</v>
+        <v>0.0003044000571251755</v>
       </c>
       <c r="S23">
-        <v>7.593929099403566E-10</v>
+        <v>7.593929760574863E-10</v>
       </c>
       <c r="T23">
-        <v>3.356889226204216E-07</v>
+        <v>3.356889714298839E-07</v>
       </c>
       <c r="U23">
-        <v>0.02561864681118486</v>
+        <v>0.02561864774359953</v>
       </c>
     </row>
     <row r="24" spans="1:21">
       <c r="A24">
-        <v>0.0001987390800603171</v>
+        <v>0.0001987390711578564</v>
       </c>
       <c r="B24">
-        <v>0.01638159154303412</v>
+        <v>0.01638158822804531</v>
       </c>
       <c r="C24">
-        <v>0.000237266840415668</v>
+        <v>0.0002372667366199391</v>
       </c>
       <c r="D24">
-        <v>0.0003729307725737473</v>
+        <v>0.0003729306277176755</v>
       </c>
       <c r="E24">
-        <v>0.1010706147474788</v>
+        <v>0.1010706026114232</v>
       </c>
       <c r="F24">
-        <v>0.004679762679554177</v>
+        <v>0.004679762066129653</v>
       </c>
       <c r="G24">
-        <v>9.647179542826229E-07</v>
+        <v>9.647172839997801E-07</v>
       </c>
       <c r="H24">
-        <v>3.71246986401485E-07</v>
+        <v>3.71246895349496E-07</v>
       </c>
       <c r="I24">
-        <v>0.0009929670954769211</v>
+        <v>0.0009929661102364489</v>
       </c>
       <c r="J24">
-        <v>0.005452346068179811</v>
+        <v>0.005452344271089538</v>
       </c>
       <c r="K24">
-        <v>0.0001450797001955749</v>
+        <v>0.0001450796206604476</v>
       </c>
       <c r="L24">
-        <v>0.0002847325845525324</v>
+        <v>0.000284732083902239</v>
       </c>
       <c r="M24">
-        <v>0.0001673102752599762</v>
+        <v>0.0001673101403457996</v>
       </c>
       <c r="N24">
-        <v>7.189256067977686E-09</v>
+        <v>7.189255151584499E-09</v>
       </c>
       <c r="O24">
-        <v>6.630470494314447E-05</v>
+        <v>6.630469943179145E-05</v>
       </c>
       <c r="P24">
-        <v>0.0002234007629431802</v>
+        <v>0.0002234007528525977</v>
       </c>
       <c r="Q24">
-        <v>0.0002271348988823079</v>
+        <v>0.0002271348884804575</v>
       </c>
       <c r="R24">
-        <v>2.011051380757511E-05</v>
+        <v>2.011050029841022E-05</v>
       </c>
       <c r="S24">
-        <v>1.218366645613701E-10</v>
+        <v>1.218366469300206E-10</v>
       </c>
       <c r="T24">
-        <v>6.165441952685121E-08</v>
+        <v>6.16544092647846E-08</v>
       </c>
       <c r="U24">
-        <v>0.002024188263844442</v>
+        <v>0.002024188064694445</v>
       </c>
     </row>
     <row r="25" spans="1:21">
       <c r="A25">
-        <v>-0.001960372394215831</v>
+        <v>-0.001960372392602606</v>
       </c>
       <c r="B25">
-        <v>-0.4456404831513228</v>
+        <v>-0.4456404823612369</v>
       </c>
       <c r="C25">
-        <v>-0.04537182840585835</v>
+        <v>-0.04537182829967214</v>
       </c>
       <c r="D25">
-        <v>-0.06015808210731119</v>
+        <v>-0.06015808198107459</v>
       </c>
       <c r="E25">
-        <v>-1.512129509313239</v>
+        <v>-1.512129497549946</v>
       </c>
       <c r="F25">
-        <v>-0.1105926374335427</v>
+        <v>-0.1105926373564075</v>
       </c>
       <c r="G25">
-        <v>-0.0003596275579802817</v>
+        <v>-0.0003596275578300317</v>
       </c>
       <c r="H25">
-        <v>-0.002855970012357016</v>
+        <v>-0.002855970012385006</v>
       </c>
       <c r="I25">
-        <v>-0.02563738679069624</v>
+        <v>-0.02563738715926533</v>
       </c>
       <c r="J25">
-        <v>-1.171873367699789</v>
+        <v>-1.17187336803063</v>
       </c>
       <c r="K25">
-        <v>-0.04337626403843873</v>
+        <v>-0.04337626364197607</v>
       </c>
       <c r="L25">
-        <v>-0.01734705405196585</v>
+        <v>-0.01734705353035663</v>
       </c>
       <c r="M25">
-        <v>-0.004300231194282978</v>
+        <v>-0.004300231167351089</v>
       </c>
       <c r="N25">
-        <v>-5.116582586947588E-07</v>
+        <v>-5.11658257226443E-07</v>
       </c>
       <c r="O25">
-        <v>-0.001009445028435701</v>
+        <v>-0.001009445026263787</v>
       </c>
       <c r="P25">
-        <v>-0.001151205776606994</v>
+        <v>-0.001151205769788334</v>
       </c>
       <c r="Q25">
-        <v>-0.001187084093344866</v>
+        <v>-0.001187084086757908</v>
       </c>
       <c r="R25">
-        <v>-0.003746186859758029</v>
+        <v>-0.003746186858156189</v>
       </c>
       <c r="S25">
-        <v>-2.271545131115169E-09</v>
+        <v>-2.271545122758533E-09</v>
       </c>
       <c r="T25">
-        <v>-1.410274341325255E-06</v>
+        <v>-1.410274340513098E-06</v>
       </c>
       <c r="U25">
-        <v>-0.02499607204399441</v>
+        <v>-0.02499607202318926</v>
       </c>
     </row>
   </sheetData>
